--- a/exports/G_final.xlsx
+++ b/exports/G_final.xlsx
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06983000457610705</v>
+        <v>0.07359922104093092</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00199514298788877</v>
+        <v>0.002102834886883744</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.009484449743142208</v>
+        <v>0.01329265377445984</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1.835414301942952e-05</v>
+        <v>2.582481348577786e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1604182906920554</v>
+        <v>0.1578396773891546</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0009097207726766842</v>
+        <v>0.0005773621352973299</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.06983000457610729</v>
+        <v>0.07359922104093117</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001995142987888777</v>
+        <v>0.002102834886883751</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.009492836152328953</v>
+        <v>0.01330842031982228</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>3.216409815404179e-05</v>
+        <v>4.98511240473648e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1607075763320364</v>
+        <v>0.1581354448366456</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001749121208363369</v>
+        <v>0.001081662602730343</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>9.881312916824931e-324</v>
+        <v>9.916332540962585e-198</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>9.881312916824931e-324</v>
+        <v>2.206851411602371e-199</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1.775153459635798e-05</v>
+        <v>3.307518128710495e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>2.902621623951313e-05</v>
+        <v>4.800964742363779e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0005902637851612001</v>
+        <v>0.0006282468880103105</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001698390083248619</v>
+        <v>0.001239742706488197</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>9.881312916824931e-324</v>
+        <v>8.482874566936919e-198</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>9.881312916824931e-324</v>
+        <v>1.834751956724548e-199</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1.737159864723343e-05</v>
+        <v>3.204750741957944e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>2.892539248303948e-05</v>
+        <v>5.327181155670822e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.000529059830957277</v>
+        <v>0.0006220419418968517</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001587704822490338</v>
+        <v>0.0009634909144410727</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>9.881312916824931e-324</v>
+        <v>7.052765129354966e-198</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>9.881312916824931e-324</v>
+        <v>1.467239314455755e-199</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1.63397649637048e-05</v>
+        <v>2.96821065178831e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>2.996502596129514e-05</v>
+        <v>5.201148841785602e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0004541105477974416</v>
+        <v>0.0006141975429463754</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001288139497396696</v>
+        <v>0.0007631131465977656</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>9.881312916824931e-324</v>
+        <v>5.626638544960405e-198</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>9.881312916824931e-324</v>
+        <v>1.105641494884825e-199</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>1.226772149442312e-05</v>
+        <v>2.556266862297334e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>2.396626826275754e-05</v>
+        <v>1.426082874746034e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0003673626748300396</v>
+        <v>0.0006315011296662876</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0007517573644383137</v>
+        <v>0.0006143933271798342</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>1.48219693752374e-323</v>
+        <v>4.205374605799305e-198</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>7.521010336912474e-200</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>3.08536737165465e-06</v>
+        <v>2.312490780081342e-05</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>6.044665938549568e-06</v>
+        <v>3.831072866825147e-05</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0002854555742306281</v>
+        <v>0.0006838034994999551</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0004540489292965785</v>
+        <v>0.0005018225331331088</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>2.790474575260101e-198</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>4.003156448407348e-200</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>3.131107763332968e-06</v>
+        <v>1.410696053008331e-05</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1.567411247698958e-05</v>
+        <v>3.29993026320077e-05</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0002409330558410476</v>
+        <v>0.000797812591927116</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0002765028468159814</v>
+        <v>0.0004151846521294705</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1.385008305511746e-198</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1.872461404006186e-201</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>2.167564697147717e-06</v>
+        <v>1.183959197186574e-06</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>1.668175711753389e-05</v>
+        <v>1.532400054809743e-05</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0002248893214442924</v>
+        <v>0.001057500550266245</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0001748483059443248</v>
+        <v>0.00034763151378853</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>3.702527230951273e-205</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>4.580883516733161e-204</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>5.895649755819644e-07</v>
+        <v>3.722132877776889e-07</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>1.442447623423542e-05</v>
+        <v>1.005638227750501e-05</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0002434035112355866</v>
+        <v>0.001889155228091795</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0001476186073081928</v>
+        <v>0.0002947159882018493</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1844140649219136</v>
+        <v>0.1768756319922433</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.005268973283483237</v>
+        <v>0.005053589485492642</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3050114081383026</v>
+        <v>0.2973061646521695</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>0.008949818572797457</v>
+        <v>0.008748648188153348</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>5.951249395293659e-06</v>
+        <v>0.00117469227621672</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0.000112558351818938</v>
+        <v>0.002460139595378541</v>
       </c>
     </row>
     <row r="122">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>4.532218675315689e-07</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>7.818615956856293e-07</v>
+        <v>1.273248296169419e-05</v>
       </c>
     </row>
     <row r="180">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>1.481532205438745e-11</v>
+        <v>3.843886021653002e-12</v>
       </c>
     </row>
     <row r="182">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>1.831450719249529e-07</v>
+        <v>6.623031741679902e-07</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>5.831432864473618e-06</v>
+        <v>1.849715327324124e-05</v>
       </c>
     </row>
     <row r="186">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>1.287810556101712e-11</v>
+        <v>6.193190394011812e-12</v>
       </c>
     </row>
     <row r="188">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>3.083416533348027e-07</v>
+        <v>2.613516865715097e-07</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>7.872676408153074e-06</v>
+        <v>7.205839358328767e-06</v>
       </c>
     </row>
     <row r="192">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>1.644563072809651e-05</v>
+        <v>9.041286868977188e-13</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>9.465126683114164e-206</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1.995376091697364e-207</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>1.88825195784685e-07</v>
+        <v>7.599211154312467e-08</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>3.711122889554852e-06</v>
+        <v>1.946821762154483e-06</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>6.070449627527392e-12</v>
+        <v>7.716484973983887e-12</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>1.481225325851591e-05</v>
+        <v>1.025920406366052e-11</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>1.893024693474293e-205</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>3.990750827551048e-207</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>7.615949626017831e-07</v>
+        <v>1.519841714552433e-07</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>3.301385423797072e-06</v>
+        <v>3.89364220159784e-06</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1.214089513022799e-11</v>
+        <v>1.543296470467182e-11</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>3.653977172185507e-11</v>
+        <v>2.051840115626577e-11</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1.003240585016901e-205</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>1.832435371431465e-207</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>2.315685128642848e-06</v>
+        <v>5.539799340040916e-13</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>2.145964672585819e-06</v>
+        <v>8.730091244694547e-13</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>6.668024270240736e-12</v>
+        <v>1.493293159540497e-11</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>1.097823385154039e-11</v>
+        <v>1.163601065222033e-11</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>7.85015585111397e-204</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1.855347554612119e-202</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>2.793413754624286e-06</v>
+        <v>1.459599575030084e-07</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>3.746597094660903e-07</v>
+        <v>1.392579659993038e-10</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>3.906202412357799e-07</v>
+        <v>6.19757419486038e-11</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>4.20820565790727e-11</v>
+        <v>4.607464532017435e-11</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>4.232145266003334e-203</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>9.872521103452904e-202</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>2.450580649233886e-06</v>
+        <v>8.264843191871397e-07</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>1.134037061344569e-08</v>
+        <v>5.334527156607813e-07</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>8.406972735575362e-07</v>
+        <v>5.422689110299765e-11</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>1.928181559396029e-11</v>
+        <v>2.871196449720455e-11</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>3.861102582518788e-203</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>4.768907870665443e-202</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>1.462467409927865e-06</v>
+        <v>7.735593693868623e-07</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>7.776980035234129e-08</v>
+        <v>4.262169289568412e-06</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>7.661173557845502e-08</v>
+        <v>4.539381502164276e-11</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>2.112024216885817e-06</v>
+        <v>1.574971344927691e-11</v>
       </c>
     </row>
     <row r="230">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>1.302237656570074e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>3.590455253114633e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>3.056356312518399e-06</v>
+        <v>3.205650950593487e-190</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>3.957387215021143e-05</v>
+        <v>4.263860059896493e-189</v>
       </c>
     </row>
     <row r="242">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>4.532218675315689e-07</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>3.300515229285751e-06</v>
+        <v>1.308114701624491e-05</v>
       </c>
     </row>
     <row r="300">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>1.831450544588786e-07</v>
+        <v>1.473085534262936e-06</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>8.350086016509129e-06</v>
+        <v>4.070116439230284e-05</v>
       </c>
     </row>
     <row r="306">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>5.07659438590664e-07</v>
+        <v>1.378687661192474e-06</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>1.367687976551792e-05</v>
+        <v>3.718574726862877e-05</v>
       </c>
     </row>
     <row r="312">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>6.335137027236468e-07</v>
+        <v>1.632052115556123e-07</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>1.69639950154899e-05</v>
+        <v>4.181130859290476e-06</v>
       </c>
     </row>
     <row r="318">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>3.910243837269069e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>1.078110086561329e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>3.179760967906064e-21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>2.222813716140014e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>9.881312916824931e-324</v>
+        <v>4.940656458412465e-324</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>9.881312916824931e-324</v>
+        <v>4.940656458412465e-324</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>9.881312916824931e-324</v>
+        <v>4.940656458412465e-324</v>
       </c>
     </row>
     <row r="359">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>1.417936755529985e-06</v>
+        <v>1.527471636814497e-06</v>
       </c>
     </row>
     <row r="420">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>0</v>
+        <v>2.556038673475624e-07</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>1.41793675552999e-06</v>
+        <v>8.075750379474125e-06</v>
       </c>
     </row>
     <row r="426">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>1.930519181183714e-07</v>
+        <v>4.30593606088023e-07</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>5.322717170977955e-06</v>
+        <v>1.103131571024816e-05</v>
       </c>
     </row>
     <row r="432">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>3.033674353927225e-07</v>
+        <v>1.745680417299429e-07</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>8.364273575827921e-06</v>
+        <v>4.472233572481603e-06</v>
       </c>
     </row>
     <row r="438">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>1.398412231600098e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>3.855622295697412e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>4.940656458412465e-324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>2.554376516812541e-07</v>
+        <v>6.81640386869495e-07</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>2.77737733113229e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>2.55437651681255e-07</v>
+        <v>6.816403868694971e-07</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>2.7773773311323e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>4.940656458412465e-324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>2.77737733113229e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="E666" t="n">
-        <v>2.7773773311323e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>9.881312916824931e-324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783">

--- a/exports/G_final.xlsx
+++ b/exports/G_final.xlsx
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>5.721865109912609e-13</v>
       </c>
     </row>
     <row r="50">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1.206800028304477e-10</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07359922104093092</v>
+        <v>0.1619342994941552</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002102834886883744</v>
+        <v>0.004611471410059105</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01329265377445984</v>
+        <v>0.155924463507255</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>2.582481348577786e-05</v>
+        <v>0.000322426508428079</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1578396773891546</v>
+        <v>0.0006354332410510221</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0005773621352973299</v>
+        <v>0.0002733374242712894</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.07359922104093117</v>
+        <v>0.1619375659903294</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0.002102834886883751</v>
+        <v>0.004611474520976524</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01330842031982228</v>
+        <v>0.1560392811897329</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>4.98511240473648e-05</v>
+        <v>0.0005651000958501693</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1581354448366456</v>
+        <v>0.0006475710961231347</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001081662602730343</v>
+        <v>0.0005323608749469048</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>9.916332540962585e-198</v>
+        <v>6.949310872709321e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>2.206851411602371e-199</v>
+        <v>3.575484935199555e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>3.307518128710495e-05</v>
+        <v>0.0003098728945298677</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>4.800964742363779e-05</v>
+        <v>0.0004928675776671474</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0006282468880103105</v>
+        <v>0.0005708821600102125</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001239742706488197</v>
+        <v>0.0003262046962347547</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>8.482874566936919e-198</v>
+        <v>8.132117875595646e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1.834751956724548e-199</v>
+        <v>6.125918227302889e-08</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>3.204750741957944e-05</v>
+        <v>0.0002616579306064347</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>5.327181155670822e-05</v>
+        <v>0.0003384480442469009</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0006220419418968517</v>
+        <v>0.001084129793066487</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0009634909144410727</v>
+        <v>3.993275127655692e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>7.052765129354966e-198</v>
+        <v>7.283713875193841e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1.467239314455755e-199</v>
+        <v>8.698504973618122e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>2.96821065178831e-05</v>
+        <v>0.0005083595891606451</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>5.201148841785602e-05</v>
+        <v>9.570001154470379e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0006141975429463754</v>
+        <v>0.0006021809646039189</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0007631131465977656</v>
+        <v>5.574129535875121e-07</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>5.626638544960405e-198</v>
+        <v>1.294445596976389e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>1.105641494884825e-199</v>
+        <v>1.373273740610285e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>2.556266862297334e-05</v>
+        <v>0.001542843708879792</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1.426082874746034e-05</v>
+        <v>3.889530376553949e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0006315011296662876</v>
+        <v>0.000544984272747143</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0006143933271798342</v>
+        <v>5.045809887568936e-07</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>4.205374605799305e-198</v>
+        <v>4.862059663859385e-05</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>7.521010336912474e-200</v>
+        <v>4.929631213416242e-08</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>2.312490780081342e-05</v>
+        <v>0.001056999617891619</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>3.831072866825147e-05</v>
+        <v>2.477911053246075e-06</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0006838034994999551</v>
+        <v>0.0002555868825215728</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0005018225331331088</v>
+        <v>2.366545208533081e-07</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>2.790474575260101e-198</v>
+        <v>2.035898344324049e-05</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>4.003156448407348e-200</v>
+        <v>5.069323896949566e-06</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>1.410696053008331e-05</v>
+        <v>0.001306139580251226</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>3.29993026320077e-05</v>
+        <v>1.85959302105641e-06</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.000797812591927116</v>
+        <v>2.012133863948321e-05</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0004151846521294705</v>
+        <v>1.86308691106326e-08</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>1.385008305511746e-198</v>
+        <v>2.021437891106745e-05</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1.872461404006186e-201</v>
+        <v>4.041240397049607e-05</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1.183959197186574e-06</v>
+        <v>0.001826437925151149</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>1.532400054809743e-05</v>
+        <v>1.82826619134961e-06</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.001057500550266245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.00034763151378853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>3.702527230951273e-205</v>
+        <v>2.322425955317108e-11</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>4.580883516733161e-204</v>
+        <v>9.657822454158926e-12</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>3.722132877776889e-07</v>
+        <v>0.003306668210515622</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>1.005638227750501e-05</v>
+        <v>3.309978188704326e-06</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.001889155228091795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0002947159882018493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1768756319922433</v>
+        <v>1.523945851984093e-20</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.005053589485492642</v>
+        <v>5.423764152677195e-21</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2973061646521695</v>
+        <v>5.964817550405474e-08</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>0.008748648188153348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.00117469227621672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0.002460139595378541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>2.931331862227102e-12</v>
       </c>
     </row>
     <row r="158">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1.78388964789296e-11</v>
       </c>
     </row>
     <row r="164">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>6.464475583500153e-05</v>
       </c>
     </row>
     <row r="170">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>4.113762756542138e-05</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>2.814937577591173e-06</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>8.347895905736388e-06</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>4.532218675315689e-07</v>
+        <v>0.0001031461447872438</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>1.273248296169419e-05</v>
+        <v>1.197950699345476e-07</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>0.1584782490267774</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>3.843886021653002e-12</v>
+        <v>0.0007386490265387537</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>6.061241729556394e-06</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>8.350915330914881e-06</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>6.623031741679902e-07</v>
+        <v>0.000213194682375767</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>1.849715327324124e-05</v>
+        <v>0.0001447156401274554</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>0.1584973160604227</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>6.193190394011812e-12</v>
+        <v>0.001227124618010334</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>6.897330114155025e-06</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>6.41528629496146e-09</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>2.613516865715097e-07</v>
+        <v>0.0003003199121185899</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>7.205839358328767e-06</v>
+        <v>0.0003458578013825326</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>2.821798261543019e-05</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>9.041286868977188e-13</v>
+        <v>0.0007229124141166505</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>9.465126683114164e-206</v>
+        <v>8.068088808839148e-06</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>1.995376091697364e-207</v>
+        <v>7.504221622731509e-09</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>7.599211154312467e-08</v>
+        <v>0.0002602258029794995</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>1.946821762154483e-06</v>
+        <v>0.0003824654992208567</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>7.716484973983887e-12</v>
+        <v>6.889445112434344e-06</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>1.025920406366052e-11</v>
+        <v>0.0001764994752537124</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>1.893024693474293e-205</v>
+        <v>7.212188511029362e-06</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>3.990750827551048e-207</v>
+        <v>6.708139058941363e-09</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>1.519841714552433e-07</v>
+        <v>8.922434222995673e-06</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>3.89364220159784e-06</v>
+        <v>0.0002460042554668534</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1.543296470467182e-11</v>
+        <v>1.114686972429658e-05</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>2.051840115626577e-11</v>
+        <v>1.0367830842519e-08</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>1.003240585016901e-205</v>
+        <v>1.227629872537427e-12</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>1.832435371431465e-207</v>
+        <v>1.246389374196492e-15</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>5.539799340040916e-13</v>
+        <v>2.276682318869818e-11</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>8.730091244694547e-13</v>
+        <v>5.849690715075332e-14</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>1.493293159540497e-11</v>
+        <v>2.898185815245522e-05</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>1.163601065222033e-11</v>
+        <v>2.695635742471657e-08</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>7.85015585111397e-204</v>
+        <v>8.630197203952811e-12</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>1.855347554612119e-202</v>
+        <v>1.610183065857461e-12</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>1.459599575030084e-07</v>
+        <v>9.550253727086101e-11</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1.392579659993038e-10</v>
+        <v>2.284187600531845e-13</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>6.19757419486038e-11</v>
+        <v>2.427872069918077e-11</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>4.607464532017435e-11</v>
+        <v>2.24802969436859e-14</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>4.232145266003334e-203</v>
+        <v>2.178795230207076e-11</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>9.872521103452904e-202</v>
+        <v>8.269971895637429e-12</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>8.264843191871397e-07</v>
+        <v>1.466256699110596e-06</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>5.334527156607813e-07</v>
+        <v>1.467763911825401e-09</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>5.422689110299765e-11</v>
+        <v>1.439190396927273e-12</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>2.871196449720455e-11</v>
+        <v>1.332583700858586e-15</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>3.861102582518788e-203</v>
+        <v>9.63899684647023e-13</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>4.768907870665443e-202</v>
+        <v>1.927014733136952e-12</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>7.735593693868623e-07</v>
+        <v>1.172941098351019e-05</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>4.262169289568412e-06</v>
+        <v>1.174115213564583e-08</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>4.539381502164276e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>1.574971344927691e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>3.205650950593487e-190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>4.263860059896493e-189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>4.270239968309463e-12</v>
       </c>
     </row>
     <row r="266">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>2.926028785062808e-11</v>
       </c>
     </row>
     <row r="272">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>7.639576342173459e-05</v>
       </c>
     </row>
     <row r="278">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>0</v>
+        <v>2.938310272784536e-05</v>
       </c>
     </row>
     <row r="284">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>6.429042081849431e-13</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>1.003617481251907e-11</v>
       </c>
     </row>
     <row r="290">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>0</v>
+        <v>7.32308320322869e-14</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>1.069364882889917e-12</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>0</v>
+        <v>5.812198887669796e-09</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>0</v>
+        <v>1.61341560884139e-07</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>4.532218675315689e-07</v>
+        <v>2.087723871530447e-07</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>1.308114701624491e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>0</v>
+        <v>0.0006306204818059143</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0</v>
+        <v>0.0003235129956428607</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>0</v>
+        <v>6.709876568659517e-09</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>1.860918169457128e-07</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>1.473085534262936e-06</v>
+        <v>2.690603966082429e-07</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>4.070116439230284e-05</v>
+        <v>1.66222654640759e-06</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>0.0006484660546462864</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>0.0006527478801369301</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>0</v>
+        <v>1.122097329974278e-09</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>0</v>
+        <v>3.093782638357651e-08</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>1.378687661192474e-06</v>
+        <v>2.161228066357459e-06</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>3.718574726862877e-05</v>
+        <v>5.55153371251063e-05</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>0</v>
+        <v>4.130202453300606e-05</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>0.0004115613570266187</v>
       </c>
     </row>
     <row r="314">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>1.632052115556123e-07</v>
+        <v>3.277794180945062e-06</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>4.181130859290476e-06</v>
+        <v>8.397333835460638e-05</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>0</v>
+        <v>4.034135371290874e-05</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>0</v>
+        <v>3.752195408310429e-08</v>
       </c>
     </row>
     <row r="320">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>0</v>
+        <v>7.483694509003484e-13</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>0</v>
+        <v>1.979541787965665e-11</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>0</v>
+        <v>2.098393500126823e-05</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>1.951739780145699e-08</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>0</v>
+        <v>4.308908654933706e-13</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>0</v>
+        <v>5.808225808147378e-13</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>0</v>
+        <v>5.037678648679009e-05</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>0</v>
+        <v>5.76178836023281e-05</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>2.42172614709954e-12</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>0</v>
+        <v>2.424150297396937e-15</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>0</v>
+        <v>1.508116564214905e-12</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>0</v>
+        <v>2.032876779703715e-12</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>0</v>
+        <v>0.000176318543413492</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>0</v>
+        <v>0.0002016622576243619</v>
       </c>
     </row>
     <row r="336">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>0</v>
+        <v>1.458550158665363e-18</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>0</v>
+        <v>5.741947604591928e-19</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>0</v>
+        <v>6.991234818074417e-14</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>0</v>
+        <v>6.998233051125542e-17</v>
       </c>
     </row>
     <row r="342">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>0</v>
+        <v>1.428945962149888e-25</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>5.085656997281743e-26</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>0</v>
+        <v>5.592982153870948e-13</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>0</v>
+        <v>5.598580734605553e-16</v>
       </c>
     </row>
     <row r="348">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>4.940656458412465e-324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>4.940656458412465e-324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>4.940656458412465e-324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>4.940656458412465e-324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>1.647890745070976e-11</v>
       </c>
     </row>
     <row r="374">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>1.363522603311916e-11</v>
       </c>
     </row>
     <row r="380">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>0</v>
+        <v>7.340683640481155e-05</v>
       </c>
     </row>
     <row r="386">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>0</v>
+        <v>1.468150710062255e-05</v>
       </c>
     </row>
     <row r="392">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>0</v>
+        <v>2.508988082052134e-12</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>0</v>
+        <v>8.23996265741871e-12</v>
       </c>
     </row>
     <row r="398">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>0</v>
+        <v>6.538856397643176e-13</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>0</v>
+        <v>4.763859293057332e-14</v>
       </c>
     </row>
     <row r="404">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>0</v>
+        <v>6.965101342421853e-06</v>
       </c>
     </row>
     <row r="409">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>0</v>
+        <v>2.745736953494044e-17</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>0</v>
+        <v>1.035720132152208e-06</v>
       </c>
     </row>
     <row r="415">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>0</v>
+        <v>1.862447859376384e-07</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>0</v>
+        <v>5.135148236455691e-06</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>0</v>
+        <v>5.295990041011811e-06</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>1.527471636814497e-06</v>
+        <v>0.0001512574601213768</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>0</v>
+        <v>1.563682444250014e-05</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>0</v>
+        <v>0.0003320480458974789</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>0</v>
+        <v>3.337345935253445e-07</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>0</v>
+        <v>9.201652931373872e-06</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>2.556038673475624e-07</v>
+        <v>1.23145662053501e-05</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>8.075750379474125e-06</v>
+        <v>0.0003500431097335585</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>0</v>
+        <v>2.416472340212673e-05</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0</v>
+        <v>0.0005505227889851236</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>0</v>
+        <v>1.843622970664935e-07</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>0</v>
+        <v>5.083131904833321e-06</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>4.30593606088023e-07</v>
+        <v>8.773225984123193e-06</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>1.103131571024816e-05</v>
+        <v>0.0002682576800135615</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>0</v>
+        <v>1.065987647485335e-05</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>0</v>
+        <v>0.0002730934891345577</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>0</v>
+        <v>8.958190627310349e-13</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>0</v>
+        <v>1.31335145972766e-12</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>1.745680417299429e-07</v>
+        <v>5.847622752028043e-05</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>4.472233572481603e-06</v>
+        <v>5.854256343119011e-08</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>0</v>
+        <v>2.327164345168208e-05</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>0</v>
+        <v>2.330217459883024e-08</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>0</v>
+        <v>1.79163751675902e-12</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>0</v>
+        <v>2.626702027042299e-12</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>0</v>
+        <v>0.0001214537123292644</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>0</v>
+        <v>0.000115435469489455</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>0</v>
+        <v>5.631004407728343e-05</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>0</v>
+        <v>5.637124671375387e-08</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>0</v>
+        <v>4.109295955941357e-20</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>0</v>
+        <v>5.539157782028544e-20</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>0</v>
+        <v>1.170342112166608e-05</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>0</v>
+        <v>0.0002998281464344302</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>0</v>
+        <v>2.539364017164513e-05</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>0</v>
+        <v>2.543163356936656e-08</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>0</v>
+        <v>1.438251890395102e-19</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>0</v>
+        <v>1.938702445883739e-19</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>0</v>
+        <v>1.681504821607838e-11</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>0</v>
+        <v>1.923201337572636e-11</v>
       </c>
     </row>
     <row r="456">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>0</v>
+        <v>1.049043774811322e-27</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>0</v>
+        <v>1.050093868680002e-30</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>0</v>
+        <v>2.00095090911578e-18</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>0</v>
+        <v>5.51690750656208e-17</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>0</v>
+        <v>9.768325830921514e-14</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>0</v>
+        <v>9.778103934856371e-17</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>0</v>
+        <v>1.783388103381203e-26</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>0</v>
+        <v>1.785173276657861e-29</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>0</v>
+        <v>3.40164265062123e-17</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>0</v>
+        <v>9.378814736712816e-16</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>0</v>
+        <v>1.660628135365464e-12</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>0</v>
+        <v>1.662290425791255e-15</v>
       </c>
     </row>
     <row r="476">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>0</v>
+        <v>1.407441717819263e-05</v>
       </c>
     </row>
     <row r="488">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>0</v>
+        <v>0.0001379138708358761</v>
       </c>
     </row>
     <row r="494">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>0</v>
+        <v>8.112809706954563e-06</v>
       </c>
     </row>
     <row r="500">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>0</v>
+        <v>2.717038317101391e-12</v>
       </c>
     </row>
     <row r="506">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>0</v>
+        <v>6.737261374045875e-07</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>0</v>
+        <v>2.267597730781379e-13</v>
       </c>
     </row>
     <row r="512">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>0</v>
+        <v>5.882327477199059e-05</v>
       </c>
     </row>
     <row r="517">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>0</v>
+        <v>1.07578266857685e-05</v>
       </c>
     </row>
     <row r="523">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>0</v>
+        <v>8.214453601813856e-07</v>
       </c>
     </row>
     <row r="528">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>0</v>
+        <v>1.736964790838344e-05</v>
       </c>
     </row>
     <row r="534">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>0</v>
+        <v>2.075872231172858e-23</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>0</v>
+        <v>9.993137771978328e-22</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>0</v>
+        <v>7.603429675827572e-05</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>6.81640386869495e-07</v>
+        <v>0.001133888812777537</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>0</v>
+        <v>0.0002821399351039354</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0</v>
+        <v>0.000220717183593196</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>0</v>
+        <v>7.497248492375374e-21</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>0</v>
+        <v>2.211923279080397e-20</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>0</v>
+        <v>8.419511157613066e-05</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>6.816403868694971e-07</v>
+        <v>0.001126860662417603</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>0</v>
+        <v>0.0002874065515099715</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0</v>
+        <v>0.0003659253216453083</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>0</v>
+        <v>3.009809753251921e-18</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>0</v>
+        <v>1.160835989631117e-18</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>0</v>
+        <v>9.695064494006441e-05</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>0</v>
+        <v>0.0002695764111581027</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>0</v>
+        <v>1.921498767798408e-05</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>0</v>
+        <v>0.0002780940787558487</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>0</v>
+        <v>5.486242871194629e-18</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>0</v>
+        <v>2.214193188050688e-18</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>0</v>
+        <v>0.0001759718597754438</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>0</v>
+        <v>0.0004649125647582296</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>0</v>
+        <v>3.803529477554829e-05</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>0</v>
+        <v>0.0002161154543607783</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>0</v>
+        <v>1.606610769277967e-18</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>0</v>
+        <v>9.220413351330691e-19</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>0</v>
+        <v>8.59383896131616e-05</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>0</v>
+        <v>0.000448074087532964</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>0</v>
+        <v>5.144395546256477e-05</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>0</v>
+        <v>0.0002044841740862342</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>0</v>
+        <v>2.44041647111405e-19</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>0</v>
+        <v>2.021805318938836e-19</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>0</v>
+        <v>1.208422098416768e-05</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>0</v>
+        <v>0.0002153563661100141</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>0</v>
+        <v>4.799085067579007e-05</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>0</v>
+        <v>0.0002022196370394986</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>0</v>
+        <v>2.531489522946233e-19</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>0</v>
+        <v>1.699070236648051e-19</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>0</v>
+        <v>6.19526356925463e-06</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>0</v>
+        <v>4.374046163789931e-08</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>0</v>
+        <v>4.10203932970938e-05</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>0</v>
+        <v>2.656991009540576e-05</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>0</v>
+        <v>1.704946641943621e-19</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>0</v>
+        <v>4.494636476947289e-20</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>0</v>
+        <v>7.116565652994181e-07</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>0</v>
+        <v>1.348993068026799e-08</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>0</v>
+        <v>5.3030665204128e-05</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>0</v>
+        <v>4.521929946585083e-05</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>0</v>
+        <v>9.536106845242718e-20</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>0</v>
+        <v>5.695814160014798e-20</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>0</v>
+        <v>4.568225432148275e-07</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>0</v>
+        <v>8.423834207946471e-09</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>0</v>
+        <v>1.740687205785387e-05</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>0</v>
+        <v>1.748320950447077e-05</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>0</v>
+        <v>9.592570092879615e-20</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>0</v>
+        <v>6.694935916659999e-20</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>0</v>
+        <v>1.995155212739228e-07</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>0</v>
+        <v>5.116735801359266e-09</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>0</v>
+        <v>3.167836623002689e-05</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>0</v>
+        <v>3.171007630633323e-08</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>0</v>
+        <v>8.814633087276977e-21</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>0</v>
+        <v>7.606328380120464e-20</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>0</v>
+        <v>1.717114771506156e-07</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>4.940656458412465e-324</v>
+        <v>8.253735598972914e-09</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>0</v>
+        <v>5.261637738775404e-05</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>4.940656458412465e-324</v>
+        <v>0.0005237574195913947</v>
       </c>
     </row>
     <row r="602">
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>0</v>
+        <v>1.407440532564172e-05</v>
       </c>
     </row>
     <row r="608">
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>0</v>
+        <v>2.744946170463148e-11</v>
       </c>
     </row>
     <row r="614">
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>0</v>
+        <v>1.14524112878419e-13</v>
       </c>
     </row>
     <row r="620">
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="E630" t="n">
-        <v>0</v>
+        <v>5.361932346453004e-07</v>
       </c>
     </row>
     <row r="631">
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="E636" t="n">
-        <v>0</v>
+        <v>4.658668788707019e-06</v>
       </c>
     </row>
     <row r="637">
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="E642" t="n">
-        <v>0</v>
+        <v>4.04017836978721e-07</v>
       </c>
     </row>
     <row r="643">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>0</v>
+        <v>8.214452344307988e-07</v>
       </c>
     </row>
     <row r="648">
@@ -11541,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>0</v>
+        <v>1.396556891593937e-05</v>
       </c>
     </row>
     <row r="654">
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>0</v>
+        <v>5.42012836564158e-20</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>0</v>
+        <v>9.277149126907366e-21</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>0</v>
+        <v>1.326420609660577e-05</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>0</v>
+        <v>0.0003625886276395052</v>
       </c>
     </row>
     <row r="660">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>0</v>
+        <v>5.420128365641599e-20</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>0</v>
+        <v>1.999412115626343e-20</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>0</v>
+        <v>1.615861973604185e-05</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>0</v>
+        <v>0.0004345346868934139</v>
       </c>
     </row>
     <row r="666">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>0</v>
+        <v>1.413256587366043e-22</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>0</v>
+        <v>7.007482592501336e-22</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>0</v>
+        <v>6.249123247777543e-06</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>0</v>
+        <v>0.0001653770369353589</v>
       </c>
     </row>
     <row r="672">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>0</v>
+        <v>5.994613588971013e-20</v>
       </c>
     </row>
     <row r="675">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>0</v>
+        <v>6.453473332055456e-23</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E676" t="n">
-        <v>0</v>
+        <v>7.671420692183285e-06</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>0</v>
+        <v>0.0001185584846603676</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="E678" t="n">
-        <v>0</v>
+        <v>6.503622717164383e-13</v>
       </c>
     </row>
     <row r="679">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>0</v>
+        <v>2.301004219537933e-12</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>0</v>
+        <v>1.871563807451722e-19</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>0</v>
+        <v>1.965097248063833e-22</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>0</v>
+        <v>6.882974954804937e-06</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>0</v>
+        <v>6.902924220257602e-09</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>0</v>
+        <v>9.095115010982183e-07</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>0</v>
+        <v>2.507650012660752e-05</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>0</v>
+        <v>2.369370238618338e-19</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>0</v>
+        <v>6.29711443675179e-21</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="E688" t="n">
-        <v>0</v>
+        <v>2.386450270674226e-06</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>0</v>
+        <v>2.388840068239209e-09</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>0</v>
+        <v>2.550563254414999e-06</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>0</v>
+        <v>7.032264523110956e-05</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="E692" t="n">
-        <v>0</v>
+        <v>2.480416885330919e-19</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>0</v>
+        <v>2.908995097808475e-20</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>0</v>
+        <v>1.244986471936186e-06</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>0</v>
+        <v>1.246236228286669e-09</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>0</v>
+        <v>2.303367351378359e-06</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>0</v>
+        <v>2.653116361379626e-05</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="E698" t="n">
-        <v>0</v>
+        <v>1.704947119037558e-19</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>0</v>
+        <v>4.494637699668479e-20</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E700" t="n">
-        <v>0</v>
+        <v>7.111933117952828e-07</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>0</v>
+        <v>7.119061080545787e-10</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>0</v>
+        <v>9.971063673266175e-06</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>0</v>
+        <v>4.5176209475567e-05</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="E704" t="n">
-        <v>0</v>
+        <v>8.986107587387674e-20</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>0</v>
+        <v>5.695264319742756e-20</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>0</v>
+        <v>4.565336662448967e-07</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>0</v>
+        <v>4.569910229849689e-10</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>0</v>
+        <v>1.500192990864464e-05</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>0</v>
+        <v>1.748080548630657e-05</v>
       </c>
     </row>
     <row r="710">
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="E710" t="n">
-        <v>0</v>
+        <v>2.424818631054787e-21</v>
       </c>
     </row>
     <row r="711">
@@ -12527,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>0</v>
+        <v>6.685571368479627e-20</v>
       </c>
     </row>
     <row r="712">
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="E712" t="n">
-        <v>0</v>
+        <v>1.993370251834334e-07</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>0</v>
+        <v>1.995365617451785e-10</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="E714" t="n">
-        <v>0</v>
+        <v>2.297187631804419e-05</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>0</v>
+        <v>2.299487118923342e-08</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E716" t="n">
-        <v>0</v>
+        <v>6.142820701907509e-21</v>
       </c>
     </row>
     <row r="717">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>0</v>
+        <v>7.606060931433238e-20</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>0</v>
+        <v>1.714292055403967e-07</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>0</v>
+        <v>4.711040600799353e-10</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>0</v>
+        <v>1.975215708206427e-05</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>0</v>
+        <v>5.427794541510664e-08</v>
       </c>
     </row>
     <row r="722">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>0</v>
+        <v>2.21895457226991e-20</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>0</v>
+        <v>2.392702056354399e-22</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>0</v>
+        <v>7.085981026160002e-07</v>
       </c>
     </row>
     <row r="779">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>0</v>
+        <v>2.218954572269918e-20</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>0</v>
+        <v>2.392702056354407e-22</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="E784" t="n">
-        <v>0</v>
+        <v>7.085981026160027e-07</v>
       </c>
     </row>
     <row r="785">

--- a/exports/G_final.xlsx
+++ b/exports/G_final.xlsx
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>5.721865109912609e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1.206800028304477e-10</v>
+        <v>4.441989967760069e-22</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1619342994941552</v>
+        <v>0.05704986514471912</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004611471410059105</v>
+        <v>0.001629996146991981</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.155924463507255</v>
+        <v>0.007009256096851178</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.000322426508428079</v>
+        <v>1.356643310383726e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0006354332410510221</v>
+        <v>5.317216774971421e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0002733374242712894</v>
+        <v>2.916012083638712e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1619375659903294</v>
+        <v>0.05704986514471933</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0.004611474520976524</v>
+        <v>0.001629996146991986</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1560392811897329</v>
+        <v>0.007012970636808306</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0005651000958501693</v>
+        <v>2.377284585244362e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0006475710961231347</v>
+        <v>8.615704992033926e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0005323608749469048</v>
+        <v>0.0001960959735560872</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>6.949310872709321e-06</v>
+        <v>7.301327894164568e-47</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>3.575484935199555e-08</v>
+        <v>1.341858029059463e-49</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0003098728945298677</v>
+        <v>7.527331309320332e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0004928675776671474</v>
+        <v>2.043469444454432e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0005708821600102125</v>
+        <v>5.66052944093252e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0003262046962347547</v>
+        <v>0.0003069249209742289</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>8.132117875595646e-06</v>
+        <v>7.663464131682456e-47</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>6.125918227302889e-08</v>
+        <v>7.739873178029803e-50</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0002616579306064347</v>
+        <v>6.702687933723971e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0003384480442469009</v>
+        <v>1.779263290786569e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.001084129793066487</v>
+        <v>0.0002106432038288673</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>3.993275127655692e-06</v>
+        <v>0.00039341287132178</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>7.283713875193841e-06</v>
+        <v>8.106407552938938e-47</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>8.698504973618122e-08</v>
+        <v>8.175910116663913e-50</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0005083595891606451</v>
+        <v>4.851663625974096e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>9.570001154470379e-05</v>
+        <v>1.590626937870061e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0006021809646039189</v>
+        <v>4.129376816723423e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>5.574129535875121e-07</v>
+        <v>0.000451329846795606</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1.294445596976389e-05</v>
+        <v>8.666843388607492e-47</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>1.373273740610285e-08</v>
+        <v>8.805658982987093e-50</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.001542843708879792</v>
+        <v>1.600553647504827e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>3.889530376553949e-06</v>
+        <v>1.198881445552588e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.000544984272747143</v>
+        <v>2.183775991746424e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>5.045809887568936e-07</v>
+        <v>0.0004503242917523287</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>4.862059663859385e-05</v>
+        <v>8.025165098171446e-47</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>4.929631213416242e-08</v>
+        <v>8.085135632186455e-50</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.001056999617891619</v>
+        <v>1.082088330542168e-06</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>2.477911053246075e-06</v>
+        <v>3.145819461343594e-06</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0002555868825215728</v>
+        <v>1.953767221899971e-05</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>2.366545208533081e-07</v>
+        <v>0.0004078625214855098</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>2.035898344324049e-05</v>
+        <v>2.47321677251653e-47</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>5.069323896949566e-06</v>
+        <v>2.773682047428715e-50</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001306139580251226</v>
+        <v>5.909378891297948e-07</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1.85959302105641e-06</v>
+        <v>1.242523262006301e-06</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>2.012133863948321e-05</v>
+        <v>0.009565345470402799</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>1.86308691106326e-08</v>
+        <v>0.0002622256243304963</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2.021437891106745e-05</v>
+        <v>3.365222536795237e-47</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>4.041240397049607e-05</v>
+        <v>3.423040844772934e-50</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.001826437925151149</v>
+        <v>7.90572171856837e-08</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>1.82826619134961e-06</v>
+        <v>1.969011013447468e-06</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>0.08601801451657912</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>0.0003209337263987647</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>2.322425955317108e-11</v>
+        <v>3.552804872978977e-47</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>9.657822454158926e-12</v>
+        <v>3.877373728637209e-50</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.003306668210515622</v>
+        <v>1.628143498463052e-08</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>3.309978188704326e-06</v>
+        <v>4.174303357509949e-14</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>0.1634154609718367</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>0.0001513104032513463</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>1.523945851984093e-20</v>
+        <v>0.2099743437846267</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>5.423764152677195e-21</v>
+        <v>0.005999266965275039</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>5.964817550405474e-08</v>
+        <v>0.3098175506243436</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>0.008870516139094099</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>0.001182110940838139</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1.094547167442721e-06</v>
       </c>
     </row>
     <row r="122">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>2.931331862227102e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>1.78388964789296e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>6.464475583500153e-05</v>
+        <v>3.923424475647334e-14</v>
       </c>
     </row>
     <row r="170">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>4.113762756542138e-05</v>
+        <v>2.125131030075647e-13</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>2.814937577591173e-06</v>
+        <v>3.332294792424675e-51</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>8.347895905736388e-06</v>
+        <v>9.205617370111171e-50</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0001031461447872438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>1.197950699345476e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0.1584782490267774</v>
+        <v>0.0005719951964768784</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0007386490265387537</v>
+        <v>1.070441895359356e-05</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>6.061241729556394e-06</v>
+        <v>5.083164860902968e-51</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>8.350915330914881e-06</v>
+        <v>1.403301627320132e-49</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0.000213194682375767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0001447156401274554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1584973160604227</v>
+        <v>0.0005719951964768805</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.001227124618010334</v>
+        <v>1.077831242281102e-05</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>6.897330114155025e-06</v>
+        <v>2.188588031736863e-51</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>6.41528629496146e-09</v>
+        <v>6.034249858931635e-50</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0003003199121185899</v>
+        <v>2.033964395364094e-15</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0.0003458578013825326</v>
+        <v>5.607930404361e-14</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>2.821798261543019e-05</v>
+        <v>7.464578627013772e-13</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0.0007229124141166505</v>
+        <v>4.859879634738422e-09</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>8.068088808839148e-06</v>
+        <v>1.002821080291229e-54</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>7.504221622731509e-09</v>
+        <v>1.006947343111002e-57</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0002602258029794995</v>
+        <v>4.853149873731752e-07</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>0.0003824654992208567</v>
+        <v>3.842090197814153e-06</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>6.889445112434344e-06</v>
+        <v>5.318828124626002e-13</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0001764994752537124</v>
+        <v>6.992699605128341e-12</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>7.212188511029362e-06</v>
+        <v>2.005641479172758e-54</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>6.708139058941363e-09</v>
+        <v>2.013894002008539e-57</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>8.922434222995673e-06</v>
+        <v>1.425593846931791e-06</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>0.0002460042554668534</v>
+        <v>1.04841922507626e-05</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1.114686972429658e-05</v>
+        <v>4.773649899965004e-13</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>1.0367830842519e-08</v>
+        <v>1.137408567408343e-11</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>1.227629872537427e-12</v>
+        <v>3.208724110120181e-48</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>1.246389374196492e-15</v>
+        <v>2.984471124028802e-51</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>2.276682318869818e-11</v>
+        <v>1.489202028932932e-06</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>5.849690715075332e-14</v>
+        <v>9.258063451754444e-06</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2.898185815245522e-05</v>
+        <v>5.552829973240425e-13</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>2.695635742471657e-08</v>
+        <v>1.076043581054848e-11</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>8.630197203952811e-12</v>
+        <v>1.54599273735293e-47</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>1.610183065857461e-12</v>
+        <v>1.437945570190919e-50</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9.550253727086101e-11</v>
+        <v>1.178551088253317e-06</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>2.284187600531845e-13</v>
+        <v>6.92316186411427e-06</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>2.427872069918077e-11</v>
+        <v>2.18498412367996e-06</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>2.24802969436859e-14</v>
+        <v>4.427144047205693e-05</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>2.178795230207076e-11</v>
+        <v>2.459784161893827e-47</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>8.269971895637429e-12</v>
+        <v>2.287873368586279e-50</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>1.466256699110596e-06</v>
+        <v>5.326178543665335e-07</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>1.467763911825401e-09</v>
+        <v>5.332339650993072e-10</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1.439190396927273e-12</v>
+        <v>0.0001392648022316989</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>1.332583700858586e-15</v>
+        <v>0.0002214782700959979</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>9.63899684647023e-13</v>
+        <v>9.903776330284839e-42</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>1.927014733136952e-12</v>
+        <v>9.91368806832855e-45</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>1.172941098351019e-05</v>
+        <v>7.258595663825162e-06</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>1.174115213564583e-08</v>
+        <v>7.265955400552819e-09</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>0.001055650832390761</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>9.818843928740726e-07</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>1.683650203804913e-40</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>1.685335540202196e-43</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>0.0001233970732057019</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>1.235205937995035e-07</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>0.000181162863835307</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>1.685016500636116e-07</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>3.773914127438843e-41</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>5.487969387959598e-41</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>7.045836875735901e-06</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>0.0001869011472686352</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>5.994834601069846e-06</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>6.000835436506353e-09</v>
       </c>
     </row>
     <row r="242">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>4.270239968309463e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>2.926028785062808e-11</v>
+        <v>7.644921764031587e-14</v>
       </c>
     </row>
     <row r="272">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>7.639576342173459e-05</v>
+        <v>3.041479510789614e-08</v>
       </c>
     </row>
     <row r="278">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>2.938310272784536e-05</v>
+        <v>4.181752151758336e-08</v>
       </c>
     </row>
     <row r="284">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>6.429042081849431e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>1.003617481251907e-11</v>
+        <v>3.291216723037025e-06</v>
       </c>
     </row>
     <row r="290">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>7.32308320322869e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>1.069364882889917e-12</v>
+        <v>1.713539007100408e-05</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>5.812198887669796e-09</v>
+        <v>1.276762446962515e-50</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>1.61341560884139e-07</v>
+        <v>3.524127166944967e-49</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>2.087723871530447e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0</v>
+        <v>3.05539449022516e-26</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>0.0006306204818059143</v>
+        <v>0.0006619490809506003</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.0003235129956428607</v>
+        <v>6.291245682684821e-07</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>6.709876568659517e-09</v>
+        <v>1.406794611358669e-50</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>1.860918169457128e-07</v>
+        <v>3.882644420208649e-49</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>2.690603966082429e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>1.66222654640759e-06</v>
+        <v>3.05539449022517e-26</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>0.0006484660546462864</v>
+        <v>0.0006619490810474174</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>0.0006527478801369301</v>
+        <v>6.374920080364265e-07</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>1.122097329974278e-09</v>
+        <v>1.625402427648951e-51</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>3.093782638357651e-08</v>
+        <v>4.481466693374965e-50</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>2.161228066357459e-06</v>
+        <v>4.265532300242747e-08</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>5.55153371251063e-05</v>
+        <v>1.176068191352643e-06</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>4.130202453300606e-05</v>
+        <v>1.496226950208403e-13</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>0.0004115613570266187</v>
+        <v>3.833333416748187e-12</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>0</v>
+        <v>6.499786767727226e-59</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>0</v>
+        <v>1.792084065959078e-57</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>3.277794180945062e-06</v>
+        <v>8.044813796066406e-08</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>8.397333835460638e-05</v>
+        <v>2.246267194142126e-06</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>4.034135371290874e-05</v>
+        <v>1.6992285715705e-13</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>3.752195408310429e-08</v>
+        <v>4.353229256506042e-12</v>
       </c>
     </row>
     <row r="320">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>7.483694509003484e-13</v>
+        <v>2.683662343964369e-08</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>1.979541787965665e-11</v>
+        <v>7.96318236415224e-07</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>2.098393500126823e-05</v>
+        <v>1.103753930022953e-06</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>1.951739780145699e-08</v>
+        <v>1.823433733771702e-11</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>4.308908654933706e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>5.808225808147378e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>5.037678648679009e-05</v>
+        <v>6.356566949479468e-15</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>5.76178836023281e-05</v>
+        <v>1.886172575836161e-13</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>2.42172614709954e-12</v>
+        <v>1.254771879485442e-05</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>2.424150297396937e-15</v>
+        <v>5.952190046706186e-05</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>1.508116564214905e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>2.032876779703715e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>0.000176318543413492</v>
+        <v>2.22479584077471e-14</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>0.0002016622576243619</v>
+        <v>6.60159632558774e-13</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>0</v>
+        <v>3.911339076541647e-05</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>0</v>
+        <v>0.0002083546958716162</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>1.458550158665363e-18</v>
+        <v>4.328614857945302e-42</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>5.741947604591928e-19</v>
+        <v>4.332947805751053e-45</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>6.991234818074417e-14</v>
+        <v>6.752861154108439e-06</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>6.998233051125542e-17</v>
+        <v>6.759620774883322e-09</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>0</v>
+        <v>0.0001541363341349766</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>1.434870425999975e-07</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>1.428945962149888e-25</v>
+        <v>3.462965816953601e-41</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>5.085656997281743e-26</v>
+        <v>3.469078151401014e-44</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>5.592982153870948e-13</v>
+        <v>5.402283495674512e-05</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>5.598580734605553e-16</v>
+        <v>5.407691186861374e-08</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>0</v>
+        <v>1.383620733500911e-05</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>0</v>
+        <v>1.378858155544184e-08</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>0</v>
+        <v>1.316831977635678e-44</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>0</v>
+        <v>4.629883269124798e-46</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>1.336357354730549e-11</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>0</v>
+        <v>1.337695049780329e-14</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>0</v>
+        <v>2.946854090793954e-05</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>0</v>
+        <v>2.845300174878248e-08</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>1.514897543668926e-45</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>0</v>
+        <v>4.176788941830037e-44</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>1.012175142360107e-11</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>0</v>
+        <v>9.127626578986389e-12</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>0.0001254174285648689</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>1.255429715364053e-07</v>
       </c>
     </row>
     <row r="362">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>1.647890745070976e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>1.363522603311916e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>7.340683640481155e-05</v>
+        <v>1.949702211134276e-13</v>
       </c>
     </row>
     <row r="386">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>1.468150710062255e-05</v>
+        <v>1.575479469212597e-05</v>
       </c>
     </row>
     <row r="392">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>2.508988082052134e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>8.23996265741871e-12</v>
+        <v>3.610596021969185e-05</v>
       </c>
     </row>
     <row r="398">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>6.538856397643176e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>4.763859293057332e-14</v>
+        <v>2.786883877319574e-05</v>
       </c>
     </row>
     <row r="404">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>6.965101342421853e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>0</v>
+        <v>7.600966344258398e-07</v>
       </c>
     </row>
     <row r="410">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>2.745736953494044e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>1.035720132152208e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>0</v>
+        <v>1.736378546019273e-08</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>1.862447859376384e-07</v>
+        <v>9.808981828993563e-51</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>5.135148236455691e-06</v>
+        <v>2.724644733444135e-49</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>5.295990041011811e-06</v>
+        <v>6.570607970504048e-09</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>0.0001512574601213768</v>
+        <v>7.644596382026606e-11</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>1.563682444250014e-05</v>
+        <v>0.01941566382354541</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>0.0003320480458974789</v>
+        <v>0.0002000888557227794</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>3.337345935253445e-07</v>
+        <v>1.90870008958723e-50</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>9.201652931373872e-06</v>
+        <v>5.282727133312128e-49</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>1.23145662053501e-05</v>
+        <v>6.570613758194772e-09</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>0.0003500431097335585</v>
+        <v>7.660553872104542e-11</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>2.416472340212673e-05</v>
+        <v>0.01941972453267309</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0.0005505227889851236</v>
+        <v>0.0003041169852013124</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>1.843622970664935e-07</v>
+        <v>1.246495566008172e-50</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>5.083131904833321e-06</v>
+        <v>3.436766346279673e-49</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>8.773225984123193e-06</v>
+        <v>1.598006647584115e-14</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>0.0002682576800135615</v>
+        <v>4.23517134904786e-13</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>1.065987647485335e-05</v>
+        <v>5.675767580607078e-06</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>0.0002730934891345577</v>
+        <v>0.0001454064610272811</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>8.958190627310349e-13</v>
+        <v>1.363104018222891e-51</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>1.31335145972766e-12</v>
+        <v>3.758272507385969e-50</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>5.847622752028043e-05</v>
+        <v>1.422273460115276e-14</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>5.854256343119011e-08</v>
+        <v>3.663155937962973e-13</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>2.327164345168208e-05</v>
+        <v>1.107902214969243e-05</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>2.330217459883024e-08</v>
+        <v>5.959076249234258e-05</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>1.79163751675902e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>2.626702027042299e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>0.0001214537123292644</v>
+        <v>9.597521305007568e-16</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>0.000115435469489455</v>
+        <v>2.847855080483495e-14</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>5.631004407728343e-05</v>
+        <v>2.080067961384806e-05</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>5.637124671375387e-08</v>
+        <v>0.0001475303075517313</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>4.109295955941357e-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>5.539157782028544e-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>1.170342112166608e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>0.0002998281464344302</v>
+        <v>1.208167510755104e-27</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>2.539364017164513e-05</v>
+        <v>7.778877209553664e-06</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>2.543163356936656e-08</v>
+        <v>0.0001992859354260169</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>1.438251890395102e-19</v>
+        <v>2.271212925900579e-45</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>1.938702445883739e-19</v>
+        <v>2.273486412312892e-48</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>1.681504821607838e-11</v>
+        <v>2.216578938797048e-12</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>1.923201337572636e-11</v>
+        <v>2.218806182235445e-15</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>0</v>
+        <v>4.968276100841196e-07</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>0</v>
+        <v>4.819718624214361e-10</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>0</v>
+        <v>1.31082756312005e-44</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>0</v>
+        <v>1.312139702822873e-47</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>0</v>
+        <v>1.140488417494792e-11</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>0</v>
+        <v>1.141630047542335e-14</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>0</v>
+        <v>1.687421973644998e-05</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>0</v>
+        <v>1.671501182633917e-08</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>1.049043774811322e-27</v>
+        <v>1.401777325885476e-44</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>1.050093868680002e-30</v>
+        <v>1.403184086764046e-47</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>2.00095090911578e-18</v>
+        <v>2.576009630434416e-12</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>5.51690750656208e-17</v>
+        <v>2.578588218653069e-15</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>9.768325830921514e-14</v>
+        <v>0.0001186496075644975</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>9.778103934856371e-17</v>
+        <v>1.187702821844627e-07</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>1.783388103381203e-26</v>
+        <v>1.297703314434318e-50</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>1.785173276657861e-29</v>
+        <v>6.216579644833891e-52</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>3.40164265062123e-17</v>
+        <v>2.517181922643758e-19</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>9.378814736712816e-16</v>
+        <v>2.519701624418704e-22</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>1.660628135365464e-12</v>
+        <v>5.999377976647676e-05</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>1.662290425791255e-15</v>
+        <v>6.008623999719363e-08</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>0</v>
+        <v>3.202166013266439e-54</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>0</v>
+        <v>8.82882915086318e-53</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>0</v>
+        <v>4.528080850658923e-21</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>0</v>
+        <v>1.163999546673666e-19</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>0</v>
+        <v>0.0001191703100744697</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>0</v>
+        <v>1.192895996741439e-07</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>1.407441717819263e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>0.0001379138708358761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>8.112809706954563e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>2.717038317101391e-12</v>
+        <v>2.168961221670243e-05</v>
       </c>
     </row>
     <row r="506">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>6.737261374045875e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>2.267597730781379e-13</v>
+        <v>4.517118342024003e-05</v>
       </c>
     </row>
     <row r="512">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>5.882327477199059e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>0</v>
+        <v>8.48309585517624e-05</v>
       </c>
     </row>
     <row r="518">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>1.07578266857685e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>0</v>
+        <v>7.219123937846132e-05</v>
       </c>
     </row>
     <row r="524">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>8.214453601813856e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>0</v>
+        <v>9.999882731112728e-05</v>
       </c>
     </row>
     <row r="530">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>1.736964790838344e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>2.075872231172858e-23</v>
+        <v>1.251991998957159e-50</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>9.993137771978328e-22</v>
+        <v>3.482931924674179e-49</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>7.603429675827572e-05</v>
+        <v>2.623875821296345e-06</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>0.001133888812777537</v>
+        <v>8.971530635494181e-06</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>0.0002821399351039354</v>
+        <v>0.009614966756629987</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0.000220717183593196</v>
+        <v>0.0001521744671864705</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>7.497248492375374e-21</v>
+        <v>2.366984771243289e-50</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>2.211923279080397e-20</v>
+        <v>6.557126282548795e-49</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>8.419511157613066e-05</v>
+        <v>2.866629156314655e-06</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>0.001126860662417603</v>
+        <v>1.566458687242737e-05</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>0.0002874065515099715</v>
+        <v>0.00962266912954793</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0.0003659253216453083</v>
+        <v>0.0003000679978212757</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>3.009809753251921e-18</v>
+        <v>1.393741249468844e-50</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>1.160835989631117e-18</v>
+        <v>3.842743730678384e-49</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>9.695064494006441e-05</v>
+        <v>4.868471341542014e-07</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>0.0002695764111581027</v>
+        <v>1.306495867585276e-05</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>1.921498767798408e-05</v>
+        <v>6.772933230318596e-05</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>0.0002780940787558487</v>
+        <v>0.0003091267618498574</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>5.486242871194629e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>2.214193188050688e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>0.0001759718597754438</v>
+        <v>4.223753990413118e-07</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>0.0004649125647582296</v>
+        <v>1.108274499298024e-05</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>3.803529477554829e-05</v>
+        <v>1.526902702146982e-05</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>0.0002161154543607783</v>
+        <v>0.0003625186290552897</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>1.606610769277967e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>9.220413351330691e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>8.59383896131616e-05</v>
+        <v>2.683334802501586e-07</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>0.000448074087532964</v>
+        <v>7.398337384040089e-06</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>5.144395546256477e-05</v>
+        <v>1.705731742678785e-05</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>0.0002044841740862342</v>
+        <v>0.0004447998118639284</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>2.44041647111405e-19</v>
+        <v>3.483779928296471e-46</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>2.021805318938836e-19</v>
+        <v>3.487267195492015e-49</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>1.208422098416768e-05</v>
+        <v>2.80818988539528e-12</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>0.0002153563661100141</v>
+        <v>2.811000886281987e-15</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>4.799085067579007e-05</v>
+        <v>1.29747790612408e-05</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>0.0002022196370394986</v>
+        <v>0.0003577331941170679</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>2.531489522946233e-19</v>
+        <v>1.219323955253709e-45</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>1.699070236648051e-19</v>
+        <v>1.220544499753568e-48</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>6.19526356925463e-06</v>
+        <v>9.828655200955789e-12</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>4.374046163789931e-08</v>
+        <v>9.838493694650408e-15</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>4.10203932970938e-05</v>
+        <v>1.058513369816735e-05</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>2.656991009540576e-05</v>
+        <v>0.0002918472576780425</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>1.704946641943621e-19</v>
+        <v>1.322181365240721e-50</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>4.494636476947289e-20</v>
+        <v>2.30409105593859e-53</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>7.116565652994181e-07</v>
+        <v>1.115735379908521e-17</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>1.348993068026799e-08</v>
+        <v>1.110453037918841e-20</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>5.3030665204128e-05</v>
+        <v>8.748260286596482e-06</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>4.521929946585083e-05</v>
+        <v>0.0002412020166869539</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>9.536106845242718e-20</v>
+        <v>9.747767061554151e-51</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>5.695814160014798e-20</v>
+        <v>8.820435683911803e-53</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>4.568225432148275e-07</v>
+        <v>7.221582111055237e-18</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>8.423834207946471e-09</v>
+        <v>6.716880755233793e-21</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>1.740687205785387e-05</v>
+        <v>9.791418331082704e-06</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>1.748320950447077e-05</v>
+        <v>0.00020142510784461</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>9.592570092879615e-20</v>
+        <v>5.787395267702533e-56</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>6.694935916659999e-20</v>
+        <v>1.057482123622489e-57</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>1.995155212739228e-07</v>
+        <v>1.51690317862825e-23</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>5.116735801359266e-09</v>
+        <v>9.418294219752148e-26</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>3.167836623002689e-05</v>
+        <v>4.842363328770337e-05</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>3.171007630633323e-08</v>
+        <v>0.0001699512911728532</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>8.814633087276977e-21</v>
+        <v>3.827393669897523e-58</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>7.606328380120464e-20</v>
+        <v>6.940896994292648e-59</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>1.717114771506156e-07</v>
+        <v>5.307399448473876e-25</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>8.253735598972914e-09</v>
+        <v>1.10301259580016e-26</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>5.261637738775404e-05</v>
+        <v>0.000677399066810301</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>0.0005237574195913947</v>
+        <v>0.001418667180056634</v>
       </c>
     </row>
     <row r="602">
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>1.407440532564172e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>2.744946170463148e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>1.14524112878419e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="E630" t="n">
-        <v>5.361932346453004e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>0</v>
+        <v>2.923166228372914e-12</v>
       </c>
     </row>
     <row r="632">
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="E636" t="n">
-        <v>4.658668788707019e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>0</v>
+        <v>1.135026550399917e-11</v>
       </c>
     </row>
     <row r="638">
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="E642" t="n">
-        <v>4.04017836978721e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>0</v>
+        <v>8.485684639474485e-12</v>
       </c>
     </row>
     <row r="644">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>8.214452344307988e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -11473,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>0</v>
+        <v>2.071562524278621e-12</v>
       </c>
     </row>
     <row r="650">
@@ -11541,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>1.396556891593937e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>5.42012836564158e-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>9.277149126907366e-21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>1.326420609660577e-05</v>
+        <v>7.132191649701647e-07</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>0.0003625886276395052</v>
+        <v>4.611441854033085e-07</v>
       </c>
     </row>
     <row r="660">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>5.420128365641599e-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>1.999412115626343e-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>1.615861973604185e-05</v>
+        <v>7.132191649701671e-07</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>0.0004345346868934139</v>
+        <v>4.611441854033101e-07</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="E666" t="n">
-        <v>0</v>
+        <v>2.147960536250276e-15</v>
       </c>
     </row>
     <row r="667">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>1.413256587366043e-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>7.007482592501336e-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>6.249123247777543e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>0.0001653770369353589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>0</v>
+        <v>1.048377974077648e-13</v>
       </c>
     </row>
     <row r="673">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>5.994613588971013e-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>6.453473332055456e-23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E676" t="n">
-        <v>7.671420692183285e-06</v>
+        <v>4.798178374963897e-15</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>0.0001185584846603676</v>
+        <v>1.322926323382903e-13</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="E678" t="n">
-        <v>6.503622717164383e-13</v>
+        <v>2.609350946736294e-13</v>
       </c>
     </row>
     <row r="679">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>2.301004219537933e-12</v>
+        <v>5.981438234873774e-12</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>1.871563807451722e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>1.965097248063833e-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>6.882974954804937e-06</v>
+        <v>9.59635348960015e-15</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>6.902924220257602e-09</v>
+        <v>2.645851747846899e-13</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>9.095115010982183e-07</v>
+        <v>4.669557560960835e-13</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>2.507650012660752e-05</v>
+        <v>1.196287240540336e-11</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>2.369370238618338e-19</v>
+        <v>3.322391753834592e-53</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>6.29711443675179e-21</v>
+        <v>3.325717984719442e-56</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="E688" t="n">
-        <v>2.386450270674226e-06</v>
+        <v>2.678098852127102e-19</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>2.388840068239209e-09</v>
+        <v>2.680779610957051e-22</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>2.550563254414999e-06</v>
+        <v>2.454775735135395e-13</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>7.032264523110956e-05</v>
+        <v>6.76816738401616e-12</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="E692" t="n">
-        <v>2.480416885330919e-19</v>
+        <v>1.162837360218936e-52</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>2.908995097808475e-20</v>
+        <v>1.164002411935616e-55</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>1.244986471936186e-06</v>
+        <v>9.373336616185806e-19</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>1.246236228286669e-09</v>
+        <v>9.382719027429497e-22</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>2.303367351378359e-06</v>
+        <v>9.719004568197509e-13</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>2.653116361379626e-05</v>
+        <v>2.679668402374455e-11</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="E698" t="n">
-        <v>1.704947119037558e-19</v>
+        <v>8.835346394591261e-58</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>4.494637699668479e-20</v>
+        <v>1.323002228533389e-60</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E700" t="n">
-        <v>7.111933117952828e-07</v>
+        <v>7.198151656906274e-25</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>7.119061080545787e-10</v>
+        <v>7.174843288404623e-28</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>9.971063673266175e-06</v>
+        <v>6.050326062837485e-13</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>4.5176209475567e-05</v>
+        <v>1.668161328753764e-11</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="E704" t="n">
-        <v>8.986107587387674e-20</v>
+        <v>4.570818841070902e-58</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>5.695264319742756e-20</v>
+        <v>4.196461918601361e-60</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>4.565336662448967e-07</v>
+        <v>3.579847351538711e-25</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>4.569910229849689e-10</v>
+        <v>3.339321227002578e-28</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>1.500192990864464e-05</v>
+        <v>3.310674022522525e-13</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>1.748080548630657e-05</v>
+        <v>9.128001233526391e-12</v>
       </c>
     </row>
     <row r="710">
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="E710" t="n">
-        <v>2.424818631054787e-21</v>
+        <v>4.104041705455551e-58</v>
       </c>
     </row>
     <row r="711">
@@ -12527,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>6.685571368479627e-20</v>
+        <v>3.817216088561072e-61</v>
       </c>
     </row>
     <row r="712">
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="E712" t="n">
-        <v>1.993370251834334e-07</v>
+        <v>2.317608983782934e-25</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>1.995365617451785e-10</v>
+        <v>2.319928912695629e-28</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="E714" t="n">
-        <v>2.297187631804419e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>2.299487118923342e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E716" t="n">
-        <v>6.142820701907509e-21</v>
+        <v>3.80070721022286e-58</v>
       </c>
     </row>
     <row r="717">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>7.606060931433238e-20</v>
+        <v>1.041312432518795e-60</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>1.714292055403967e-07</v>
+        <v>1.993348352315729e-25</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>4.711040600799353e-10</v>
+        <v>5.477951704572203e-28</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>1.975215708206427e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>5.427794541510664e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>2.21895457226991e-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>2.392702056354399e-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>7.085981026160002e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>2.218954572269918e-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>2.392702056354407e-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="E784" t="n">
-        <v>7.085981026160027e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">

--- a/exports/G_final.xlsx
+++ b/exports/G_final.xlsx
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>8.0782201096603e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>2.904537115961755e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1.73977900669764e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1596794974212785</v>
+        <v>0.1620370370370394</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0005372507761777062</v>
+        <v>0.004629629629629665</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.160194148689955</v>
+        <v>0.1585664223419465</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0008865172010018508</v>
+        <v>0.0005335925568303422</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1603396648585402</v>
+        <v>0.0817287330633822</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0005603787451996747</v>
+        <v>0.0007135457987615727</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1597213078365671</v>
+        <v>0.16203703703704</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0005727543154868254</v>
+        <v>0.004629629629629681</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1602340634025846</v>
+        <v>0.1586053538559447</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0009359767255098621</v>
+        <v>0.0005688541694211353</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1603676252623797</v>
+        <v>0.08172934731176934</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0005951336551881767</v>
+        <v>0.0007151914296359135</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>8.852293492461848e-05</v>
+        <v>8.131014846639616e-24</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>7.126533859558877e-05</v>
+        <v>4.012383171410794e-26</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>8.426233448793799e-05</v>
+        <v>8.1463137279729e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0001152988243883048</v>
+        <v>4.497383413882572e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>6.548523524835701e-05</v>
+        <v>0.000277533481959347</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>7.473191924728188e-05</v>
+        <v>4.334271658402464e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>8.545351262998376e-05</v>
+        <v>7.824066324063281e-24</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>6.50008688595776e-05</v>
+        <v>8.547163739547896e-27</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>7.865109166766649e-05</v>
+        <v>7.717713739816694e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0001032931937602422</v>
+        <v>2.15661870589908e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>6.203688837292694e-05</v>
+        <v>0.0004391258924912675</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>7.39724708920301e-05</v>
+        <v>3.578509959745192e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>8.051133865588303e-05</v>
+        <v>7.29895994129822e-24</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>6.157099027003371e-05</v>
+        <v>6.455958441798284e-26</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>6.994111258006985e-05</v>
+        <v>7.2549164721097e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.00010944063831916</v>
+        <v>2.056831409601801e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>5.594540136083121e-05</v>
+        <v>2.932219729438639e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>5.984849719128006e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>7.857468501718109e-05</v>
+        <v>6.983305845245535e-24</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>5.441466935360737e-05</v>
+        <v>1.5565126575538e-25</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>6.626650899065501e-05</v>
+        <v>7.083996888762454e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0001237707508556721</v>
+        <v>1.898408815476676e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>5.352675522399572e-05</v>
+        <v>2.117728969277728e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>3.414974210881425e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>7.366342338148132e-05</v>
+        <v>6.041237466950773e-24</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>5.685994640206169e-05</v>
+        <v>6.012231429080746e-27</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>5.320848569609359e-05</v>
+        <v>6.593303554658005e-05</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0001113469482963058</v>
+        <v>1.82783886194114e-06</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>4.19227230927788e-05</v>
+        <v>1.13908443857079e-06</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>3.171708972275217e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>7.310905479563685e-05</v>
+        <v>5.954068405254881e-24</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>7.124012250641253e-05</v>
+        <v>6.524557300826776e-27</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>5.067132623023756e-05</v>
+        <v>6.510707662329199e-05</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>9.624442302551316e-05</v>
+        <v>1.687554555315284e-06</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>2.10025725307806e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>3.022902070416534e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>6.68934472727289e-05</v>
+        <v>5.33817556339736e-24</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0001074573316761996</v>
+        <v>6.23536070954431e-27</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>3.856796432108683e-05</v>
+        <v>5.99296316908011e-05</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0001014756434238251</v>
+        <v>1.636008072537979e-06</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>2.216228272946746e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>3.551390819482144e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>9.246641285025819e-05</v>
+        <v>4.732819707224486e-24</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0007240410262267032</v>
+        <v>1.059181423913585e-26</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>4.909137877535066e-05</v>
+        <v>5.989998979790679e-05</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0001756409002826365</v>
+        <v>1.546380468338252e-06</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>2.611607965431895e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0001378008172286818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>1.311923778991558e-12</v>
+        <v>5.03088567114367e-24</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>9.665498755737437e-13</v>
+        <v>9.85490527922687e-25</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>5.039521565620627e-13</v>
+        <v>6.896324323556508e-05</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>5.61012002223709e-13</v>
+        <v>2.227690258528113e-05</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1.751181861492773e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0002426821379833738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>3.172716082465811e-14</v>
+        <v>2.536755847714313e-05</v>
       </c>
     </row>
     <row r="164">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>4.075528876090695e-13</v>
+        <v>1.2699697039284e-05</v>
       </c>
     </row>
     <row r="170">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>1.508034988173762e-254</v>
+        <v>1.012676299219692e-08</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0005422275667290196</v>
+        <v>4.968360826208356e-23</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0004243427058614745</v>
+        <v>2.330809683922963e-25</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0005044718989646837</v>
+        <v>0.000505939331038106</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0006980121119389775</v>
+        <v>0.0004666527778777714</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0003957438432390003</v>
+        <v>0.07884566708929407</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0004757364524392661</v>
+        <v>0.001102195019714658</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0005422275667290214</v>
+        <v>4.968388892836845e-23</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>0.000424342705861476</v>
+        <v>2.408193388137984e-25</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0005044718989646854</v>
+        <v>0.0005070194891681574</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0.00069801211193898</v>
+        <v>0.0004964342806062848</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0003957438432390016</v>
+        <v>0.07886860633629152</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.0004757364524392678</v>
+        <v>0.001102206408477993</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>3.508329274136235e-28</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>9.672964998689903e-27</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1.350197937950243e-06</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>3.722688600348527e-05</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>2.867406459162079e-05</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1.423595706714241e-08</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>1.018296669120252e-12</v>
+        <v>9.226784324698179e-32</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>8.136596167014545e-13</v>
+        <v>9.345676936237892e-35</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>8.812932591359466e-13</v>
+        <v>9.170643990168004e-13</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>1.29117322014313e-12</v>
+        <v>3.33648516069233e-14</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>7.073912564669599e-13</v>
+        <v>3.07320089289049e-14</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>8.871018297558299e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2.036592646315254e-12</v>
+        <v>1.845356237986288e-31</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1.627318680527061e-12</v>
+        <v>1.869134752215563e-34</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>1.762585919439472e-12</v>
+        <v>1.833646686132101e-12</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>2.582345562943358e-12</v>
+        <v>5.345434750989629e-14</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1.414782032266657e-12</v>
+        <v>8.816123607472155e-14</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>1.774203056732357e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>1.650620412141973e-12</v>
+        <v>1.356104015963794e-31</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>1.20527106030437e-12</v>
+        <v>1.32087513730533e-34</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>1.197985870211055e-12</v>
+        <v>1.480152420715955e-12</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>2.571562739584537e-12</v>
+        <v>4.16607371825072e-14</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>1.041900215256794e-12</v>
+        <v>6.830970260119679e-14</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>7.181580306377855e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>6.713110274989785e-12</v>
+        <v>1.140353112609523e-25</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>5.121551602143808e-12</v>
+        <v>5.661595643735683e-29</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>4.854004226577974e-12</v>
+        <v>6.011030481335803e-12</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1.021426986029675e-11</v>
+        <v>1.671903377183579e-13</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>3.910208724473215e-12</v>
+        <v>9.95207325445313e-14</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>2.896970789840543e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>5.046019218107315e-12</v>
+        <v>5.748713067208961e-25</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>4.902172039333247e-12</v>
+        <v>2.854094937020632e-28</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>3.517960372236161e-12</v>
+        <v>4.488717797222806e-12</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>6.612307773576441e-12</v>
+        <v>1.160987179439426e-13</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1.440750659095485e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>2.080465792547727e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>2.930368980197094e-12</v>
+        <v>2.924559524726829e-25</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>3.093100239437683e-12</v>
+        <v>1.451972449845612e-28</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>1.701367392676243e-12</v>
+        <v>2.907370990202439e-06</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>4.346080308766237e-12</v>
+        <v>1.443509429904737e-09</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>9.835269778313619e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>1.306917262105471e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>4.332891981482113e-24</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>2.151173007589158e-27</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>4.942564041503633e-05</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>2.453859617467796e-08</v>
       </c>
     </row>
     <row r="234">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>2.224161299751687e-13</v>
+        <v>3.334147992283803e-24</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>2.387933558624684e-16</v>
+        <v>3.337503214611651e-27</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>4.582287673444713e-256</v>
+        <v>4.473336228989242e-05</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>1.263402141559585e-254</v>
+        <v>2.220987236791856e-08</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>9.761993523196866e-256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>2.691521071395707e-254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>2.177055199998435e-05</v>
       </c>
     </row>
     <row r="272">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>4.831740913451701e-05</v>
       </c>
     </row>
     <row r="278">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>0</v>
+        <v>4.155878998778356e-05</v>
       </c>
     </row>
     <row r="284">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>1.268378354916927e-05</v>
       </c>
     </row>
     <row r="290">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>8.450430259650018e-16</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>0.000493326541342011</v>
+        <v>4.457127855833936e-23</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>0.0003664052420774762</v>
+        <v>2.286519985998239e-23</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>0.000413629052367471</v>
+        <v>0.0004587905341952607</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0.0007584069401345915</v>
+        <v>0.0004090989706616151</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>0.0003355486900255629</v>
+        <v>0.0003693621608448526</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.0004455737016398614</v>
+        <v>0.0008156606517391976</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>0.0004933265413420128</v>
+        <v>4.457127855833951e-23</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>0.0003664052420774775</v>
+        <v>2.286519985998247e-23</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>0.0004136290523674724</v>
+        <v>0.0004597374729047651</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>0.000758406940134594</v>
+        <v>0.0004352074236521937</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>0.0003355486900255639</v>
+        <v>0.0003848352987469286</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>0.0004455737016398629</v>
+        <v>0.0008156683337657632</v>
       </c>
     </row>
     <row r="308">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>0</v>
+        <v>1.186886485094986e-06</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>0</v>
+        <v>3.272415594619032e-05</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>0</v>
+        <v>1.934142632030204e-05</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>9.602535160511391e-09</v>
       </c>
     </row>
     <row r="314">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>0</v>
+        <v>5.048777309773904e-09</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>0</v>
+        <v>1.392020029694804e-07</v>
       </c>
     </row>
     <row r="318">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>0</v>
+        <v>1.616219968694739e-25</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>0</v>
+        <v>8.024128530904274e-29</v>
       </c>
     </row>
     <row r="328">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>0</v>
+        <v>5.656763382741146e-25</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>0</v>
+        <v>2.808441754910707e-28</v>
       </c>
     </row>
     <row r="334">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>0</v>
+        <v>4.100597146753977e-32</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>0</v>
+        <v>2.035844080406106e-35</v>
       </c>
     </row>
     <row r="340">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>0</v>
+        <v>2.095245003481413e-25</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>2.097353861210516e-28</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>0</v>
+        <v>2.434312261986577e-06</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>0</v>
+        <v>1.208580359394985e-09</v>
       </c>
     </row>
     <row r="348">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>0</v>
+        <v>3.561943810772627e-24</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>0</v>
+        <v>3.565528911764808e-27</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>4.138362604289478e-05</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>0</v>
+        <v>2.054602378545025e-08</v>
       </c>
     </row>
     <row r="354">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>2.861885511262138e-24</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>0</v>
+        <v>4.411206702083999e-26</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>3.916681710731388e-05</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>0</v>
+        <v>1.944534659284772e-08</v>
       </c>
     </row>
     <row r="360">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>1.742420629801654e-05</v>
       </c>
     </row>
     <row r="380">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>0</v>
+        <v>3.56870193108818e-05</v>
       </c>
     </row>
     <row r="386">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>0</v>
+        <v>2.847235754684507e-05</v>
       </c>
     </row>
     <row r="392">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>0</v>
+        <v>6.220164962222708e-06</v>
       </c>
     </row>
     <row r="398">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>0</v>
+        <v>9.306186880879684e-16</v>
       </c>
     </row>
     <row r="404">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>0.0004504773374621339</v>
+        <v>3.68417356891796e-23</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>0.0004325427650440438</v>
+        <v>1.703381667920843e-25</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>0.0003075441223672194</v>
+        <v>0.0004166431213561808</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>0.0006334170702393206</v>
+        <v>0.0003611826536914114</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>0.0002807265394625976</v>
+        <v>0.0002491446871548314</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>0.0003978986543959792</v>
+        <v>0.000576070790569281</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>0.0004504773374621355</v>
+        <v>3.684173568917973e-23</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>0.0004325427650440453</v>
+        <v>1.703381667920849e-25</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>0.0003075441223672204</v>
+        <v>0.000417482935339589</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>0.0006334170702393228</v>
+        <v>0.0003843375249481989</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>0.0002807265394625986</v>
+        <v>0.0002491446871548322</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0.0003978986543959806</v>
+        <v>0.000576070790569283</v>
       </c>
     </row>
     <row r="428">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>0</v>
+        <v>1.052711800784014e-06</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>0</v>
+        <v>2.902476822161639e-05</v>
       </c>
     </row>
     <row r="432">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>0</v>
+        <v>4.626456653849768e-09</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>0</v>
+        <v>1.275580191704293e-07</v>
       </c>
     </row>
     <row r="438">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>0</v>
+        <v>1.639291710509221e-35</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>0</v>
+        <v>2.241704730897424e-34</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>0</v>
+        <v>2.664607225451485e-18</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>0</v>
+        <v>3.643807008224636e-17</v>
       </c>
     </row>
     <row r="444">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>0</v>
+        <v>1.072045946206142e-25</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>0</v>
+        <v>1.309860032116486e-27</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>0</v>
+        <v>6.927985738813118e-18</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>0</v>
+        <v>9.473907729005069e-17</v>
       </c>
     </row>
     <row r="450">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>0</v>
+        <v>3.752852983724477e-25</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>0</v>
+        <v>5.537015556062447e-27</v>
       </c>
     </row>
     <row r="454">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>0</v>
+        <v>4.631867368595873e-26</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>0</v>
+        <v>4.808575359817421e-27</v>
       </c>
     </row>
     <row r="460">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>0</v>
+        <v>5.474883932975421e-25</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>0</v>
+        <v>6.590266351918586e-27</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>0</v>
+        <v>2.138402127131405e-06</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>0</v>
+        <v>2.786690766439279e-08</v>
       </c>
     </row>
     <row r="468">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>0</v>
+        <v>3.055357837186204e-24</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>0</v>
+        <v>1.057771132217144e-25</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>0</v>
+        <v>3.63531151448576e-05</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>0</v>
+        <v>4.737410659115633e-07</v>
       </c>
     </row>
     <row r="474">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>0</v>
+        <v>2.382355174897766e-24</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>0</v>
+        <v>4.63066971570926e-25</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>0</v>
+        <v>3.433347503900553e-05</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>0</v>
+        <v>7.015015778136214e-07</v>
       </c>
     </row>
     <row r="480">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>0</v>
+        <v>1.732436169079161e-05</v>
       </c>
     </row>
     <row r="488">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>0</v>
+        <v>3.148295931886586e-05</v>
       </c>
     </row>
     <row r="494">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>0</v>
+        <v>4.179514398434527e-05</v>
       </c>
     </row>
     <row r="500">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>0</v>
+        <v>6.509899373284299e-06</v>
       </c>
     </row>
     <row r="506">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>0</v>
+        <v>2.834796939106497e-06</v>
       </c>
     </row>
     <row r="512">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>0</v>
+        <v>1.470920740963881e-05</v>
       </c>
     </row>
     <row r="518">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>0.0003925462750785608</v>
+        <v>3.269490019410977e-23</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>0.002383870482892197</v>
+        <v>1.40346656817647e-24</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>0.0002134965384173327</v>
+        <v>0.0003785643391159649</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>0.001298750136386872</v>
+        <v>0.0003323282406400455</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>0.0002960639773010121</v>
+        <v>0.0001787617490690985</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0.001743099473006642</v>
+        <v>0.0003919638128561838</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>0.0003925462750785621</v>
+        <v>3.269773289883394e-23</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>0.002383870482892205</v>
+        <v>1.442203344190236e-24</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>0.0002134965384173334</v>
+        <v>0.000379435671469012</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>0.001298750136386877</v>
+        <v>0.000355671511018242</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>0.0002960639773010131</v>
+        <v>0.0001842690287614097</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0.001743099473006648</v>
+        <v>0.0003957603394664049</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>0</v>
+        <v>5.970656488907244e-27</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>0</v>
+        <v>8.164775562483077e-26</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>0</v>
+        <v>1.663658398541325e-06</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>0</v>
+        <v>4.50186793344868e-05</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>0</v>
+        <v>4.824568042644597e-06</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>0</v>
+        <v>8.104942300727763e-06</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>0</v>
+        <v>6.206219631693815e-27</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>0</v>
+        <v>8.486904325914501e-26</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>0</v>
+        <v>1.60621550653676e-06</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>0</v>
+        <v>4.090457775045073e-05</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>0</v>
+        <v>6.285130005716545e-06</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>0</v>
+        <v>7.233149498501945e-06</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>0</v>
+        <v>6.794389883755286e-27</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>0</v>
+        <v>9.291217571791745e-26</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>0</v>
+        <v>1.594075613387223e-06</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>0</v>
+        <v>3.458742286550508e-05</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>0</v>
+        <v>3.522965813748557e-06</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>0</v>
+        <v>5.524665993255751e-06</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>0</v>
+        <v>8.322050888474583e-27</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>0</v>
+        <v>1.138025516114238e-25</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>0</v>
+        <v>6.226687459627418e-07</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>0</v>
+        <v>8.514893747452965e-06</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>0</v>
+        <v>1.390005025807931e-06</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>0</v>
+        <v>5.08243855769256e-06</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>0</v>
+        <v>1.302265552895043e-26</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>0</v>
+        <v>2.095283059203356e-25</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>0</v>
+        <v>5.743512293145501e-07</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>0</v>
+        <v>7.854159572070475e-06</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>0</v>
+        <v>1.234423225843778e-06</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>0</v>
+        <v>3.739258628051432e-06</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>0</v>
+        <v>6.816846545178059e-26</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>0</v>
+        <v>5.661564731168031e-25</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>0</v>
+        <v>4.924108717904419e-07</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>0</v>
+        <v>6.733638520596604e-06</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>0</v>
+        <v>1.006953793007099e-06</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>0</v>
+        <v>3.659085389960084e-06</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>0</v>
+        <v>6.26379534310188e-25</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>0</v>
+        <v>2.629173267236368e-24</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>0</v>
+        <v>2.008929900085774e-06</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>0</v>
+        <v>1.668572967827954e-06</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>0</v>
+        <v>9.667031747076089e-07</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>0</v>
+        <v>3.161470763684547e-06</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>0</v>
+        <v>2.916317085441108e-24</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>0</v>
+        <v>1.012420467380264e-23</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>0</v>
+        <v>3.415207039367001e-05</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>0</v>
+        <v>2.836595814109895e-05</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>0</v>
+        <v>7.956165380823215e-07</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>0</v>
+        <v>3.161576013246224e-06</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>0</v>
+        <v>8.722899784923974e-25</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>0</v>
+        <v>2.065694251643866e-24</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>0</v>
+        <v>3.726414057537984e-05</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>0</v>
+        <v>9.021603106042247e-05</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>0</v>
+        <v>1.098408589988747e-06</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>0</v>
+        <v>1.056906397166827e-05</v>
       </c>
     </row>
     <row r="602">
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>0</v>
+        <v>1.732436463428437e-05</v>
       </c>
     </row>
     <row r="608">
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>0</v>
+        <v>6.285651352186736e-06</v>
       </c>
     </row>
     <row r="614">
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>0</v>
+        <v>2.288875089291851e-05</v>
       </c>
     </row>
     <row r="620">
@@ -11065,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>0</v>
+        <v>4.331872075640043e-06</v>
       </c>
     </row>
     <row r="626">
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>0</v>
+        <v>2.834798200689466e-06</v>
       </c>
     </row>
     <row r="632">
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>0</v>
+        <v>1.470920712120717e-05</v>
       </c>
     </row>
     <row r="638">
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>2.95354804355818e-12</v>
+        <v>2.728546920141877e-23</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>1.433126123664835e-12</v>
+        <v>2.428437503589657e-24</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>7.466563878067781e-13</v>
+        <v>0.000323434954720755</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>1.729787006856433e-12</v>
+        <v>0.0002812757520077194</v>
       </c>
     </row>
     <row r="660">
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>5.399477406269375e-05</v>
+        <v>0.0001050124102444018</v>
       </c>
     </row>
     <row r="661">
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>0.0007482699254487348</v>
+        <v>0.0002469648010957772</v>
       </c>
     </row>
     <row r="662">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>2.95354804355819e-12</v>
+        <v>2.728830190587276e-23</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>1.43312612366484e-12</v>
+        <v>2.467174275909201e-24</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>7.466563878067807e-13</v>
+        <v>0.0003234839312844335</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>1.729787006856439e-12</v>
+        <v>0.0002819454985439527</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="E666" t="n">
-        <v>5.399477406269394e-05</v>
+        <v>0.0001105196890959978</v>
       </c>
     </row>
     <row r="667">
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>0.0007482699254487373</v>
+        <v>0.0002507613273439328</v>
       </c>
     </row>
     <row r="668">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>0</v>
+        <v>5.970655687779737e-27</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>0</v>
+        <v>8.164774466954251e-26</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>0</v>
+        <v>1.001588786768006e-07</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>0</v>
+        <v>1.910764082213956e-06</v>
       </c>
     </row>
     <row r="672">
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>0</v>
+        <v>4.824567515313946e-06</v>
       </c>
     </row>
     <row r="673">
@@ -11881,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>0</v>
+        <v>8.104941207414108e-06</v>
       </c>
     </row>
     <row r="674">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>0</v>
+        <v>6.034018675481727e-27</v>
       </c>
     </row>
     <row r="675">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>0</v>
+        <v>8.251422321259099e-26</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E676" t="n">
-        <v>0</v>
+        <v>3.044913286005104e-07</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>0</v>
+        <v>5.014182075112682e-06</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="E678" t="n">
-        <v>0</v>
+        <v>6.285129980154597e-06</v>
       </c>
     </row>
     <row r="679">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>0</v>
+        <v>7.233148771197553e-06</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>0</v>
+        <v>6.278096662260621e-27</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>0</v>
+        <v>8.585194995251453e-26</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>0</v>
+        <v>6.737717883646413e-07</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>0</v>
+        <v>9.213719991468865e-06</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>0</v>
+        <v>3.522966098164473e-06</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>0</v>
+        <v>5.524665935877265e-06</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>0</v>
+        <v>7.818052683188712e-27</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>0</v>
+        <v>1.069105978756235e-25</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="E688" t="n">
-        <v>0</v>
+        <v>6.22595967003662e-07</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>0</v>
+        <v>8.513898507033989e-06</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>0</v>
+        <v>1.390004725759705e-06</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>0</v>
+        <v>5.082437290682533e-06</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="E692" t="n">
-        <v>0</v>
+        <v>1.282288948715857e-26</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>0</v>
+        <v>2.067970357064089e-25</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>0</v>
+        <v>5.743514390201929e-07</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>0</v>
+        <v>7.854162439761007e-06</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>0</v>
+        <v>1.234423679726035e-06</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>0</v>
+        <v>3.739259991768212e-06</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="E698" t="n">
-        <v>0</v>
+        <v>2.990075476874753e-26</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>0</v>
+        <v>5.661183044812133e-25</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E700" t="n">
-        <v>0</v>
+        <v>4.924110126703436e-07</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>0</v>
+        <v>6.733640447106326e-06</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>0</v>
+        <v>1.006954070132827e-06</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>0</v>
+        <v>3.659086401362234e-06</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="E704" t="n">
-        <v>0</v>
+        <v>1.486913878369204e-25</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>0</v>
+        <v>2.033330326133733e-24</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>0</v>
+        <v>3.746763916243122e-08</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>0</v>
+        <v>5.123638668305655e-07</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>0</v>
+        <v>9.667033144590952e-07</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>0</v>
+        <v>3.161471189329077e-06</v>
       </c>
     </row>
     <row r="710">
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="E712" t="n">
-        <v>0</v>
+        <v>6.369547539241382e-07</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>0</v>
+        <v>8.710252580950348e-06</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="E714" t="n">
-        <v>0</v>
+        <v>7.956159310753071e-07</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>0</v>
+        <v>3.161573601156072e-06</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E716" t="n">
-        <v>0</v>
+        <v>1.886734329060514e-25</v>
       </c>
     </row>
     <row r="717">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>0</v>
+        <v>1.492616360493971e-24</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>0</v>
+        <v>8.808028063153109e-06</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>0</v>
+        <v>7.794152903809457e-05</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>0</v>
+        <v>1.098408589988747e-06</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>0</v>
+        <v>1.056906397166827e-05</v>
       </c>
     </row>
     <row r="722">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>5.585272633061795e-117</v>
+        <v>2.246547195538947e-23</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>5.590863496558353e-120</v>
+        <v>2.624889153098911e-24</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>0</v>
+        <v>0.000271267774182363</v>
       </c>
     </row>
     <row r="779">
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>0</v>
+        <v>0.0002616896939364968</v>
       </c>
     </row>
     <row r="780">
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="E780" t="n">
-        <v>0</v>
+        <v>5.283908886708357e-05</v>
       </c>
     </row>
     <row r="781">
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>0</v>
+        <v>0.0001614546361337845</v>
       </c>
     </row>
     <row r="782">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>5.585272633061814e-117</v>
+        <v>2.246547195538954e-23</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>5.590863496558372e-120</v>
+        <v>2.624889153098921e-24</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="E784" t="n">
-        <v>0</v>
+        <v>0.0002712677741823638</v>
       </c>
     </row>
     <row r="785">
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>0</v>
+        <v>0.0002616896939364977</v>
       </c>
     </row>
     <row r="786">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E786" t="n">
-        <v>0</v>
+        <v>5.283908886708374e-05</v>
       </c>
     </row>
     <row r="787">
@@ -13819,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>0</v>
+        <v>0.0001614546361337851</v>
       </c>
     </row>
     <row r="788">
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="E896" t="n">
-        <v>0</v>
+        <v>1.921916435205624e-23</v>
       </c>
     </row>
     <row r="897">
@@ -15689,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>0</v>
+        <v>5.361282400615377e-24</v>
       </c>
     </row>
     <row r="898">
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="E898" t="n">
-        <v>0</v>
+        <v>0.000237739941969104</v>
       </c>
     </row>
     <row r="899">
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>0</v>
+        <v>0.0002328825473993468</v>
       </c>
     </row>
     <row r="900">
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="E900" t="n">
-        <v>0</v>
+        <v>3.263842178055256e-05</v>
       </c>
     </row>
     <row r="901">
@@ -15757,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>0</v>
+        <v>0.0001090717903772366</v>
       </c>
     </row>
     <row r="902">
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="E902" t="n">
-        <v>0</v>
+        <v>1.92191643520563e-23</v>
       </c>
     </row>
     <row r="903">
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="E903" t="n">
-        <v>0</v>
+        <v>5.361282400615397e-24</v>
       </c>
     </row>
     <row r="904">
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="E904" t="n">
-        <v>0</v>
+        <v>0.0002377399419691048</v>
       </c>
     </row>
     <row r="905">
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="E905" t="n">
-        <v>0</v>
+        <v>0.0002328825473993476</v>
       </c>
     </row>
     <row r="906">
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="E906" t="n">
-        <v>0</v>
+        <v>3.263842178055267e-05</v>
       </c>
     </row>
     <row r="907">
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="E907" t="n">
-        <v>0</v>
+        <v>0.000109071790377237</v>
       </c>
     </row>
     <row r="908">
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="E1016" t="n">
-        <v>0</v>
+        <v>1.572449925908539e-23</v>
       </c>
     </row>
     <row r="1017">
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="E1017" t="n">
-        <v>0</v>
+        <v>6.60537624270354e-23</v>
       </c>
     </row>
     <row r="1018">
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="E1018" t="n">
-        <v>0</v>
+        <v>0.0002084290076795218</v>
       </c>
     </row>
     <row r="1019">
@@ -17763,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="E1019" t="n">
-        <v>0</v>
+        <v>0.0002755205516592432</v>
       </c>
     </row>
     <row r="1020">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="E1020" t="n">
-        <v>0</v>
+        <v>2.455910395681087e-05</v>
       </c>
     </row>
     <row r="1021">
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="E1021" t="n">
-        <v>0</v>
+        <v>8.625314837080349e-05</v>
       </c>
     </row>
     <row r="1022">
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="E1022" t="n">
-        <v>0</v>
+        <v>1.572449925908544e-23</v>
       </c>
     </row>
     <row r="1023">
@@ -17831,7 +17831,7 @@
         <v>1</v>
       </c>
       <c r="E1023" t="n">
-        <v>0</v>
+        <v>6.605376242703563e-23</v>
       </c>
     </row>
     <row r="1024">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="E1024" t="n">
-        <v>0</v>
+        <v>0.0002084290076795225</v>
       </c>
     </row>
     <row r="1025">
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="E1025" t="n">
-        <v>0</v>
+        <v>0.0002755205516592441</v>
       </c>
     </row>
     <row r="1026">
@@ -17882,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="E1026" t="n">
-        <v>0</v>
+        <v>2.455910395681095e-05</v>
       </c>
     </row>
     <row r="1027">
@@ -17899,7 +17899,7 @@
         <v>1</v>
       </c>
       <c r="E1027" t="n">
-        <v>0</v>
+        <v>8.62531483708038e-05</v>
       </c>
     </row>
     <row r="1028">
@@ -19752,7 +19752,7 @@
         <v>0</v>
       </c>
       <c r="E1136" t="n">
-        <v>0</v>
+        <v>3.564137703760376e-24</v>
       </c>
     </row>
     <row r="1137">
@@ -19769,7 +19769,7 @@
         <v>1</v>
       </c>
       <c r="E1137" t="n">
-        <v>0</v>
+        <v>2.080214528650208e-23</v>
       </c>
     </row>
     <row r="1138">
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="E1138" t="n">
-        <v>0</v>
+        <v>0.0001631629515288365</v>
       </c>
     </row>
     <row r="1139">
@@ -19803,7 +19803,7 @@
         <v>1</v>
       </c>
       <c r="E1139" t="n">
-        <v>0</v>
+        <v>0.00112081420834181</v>
       </c>
     </row>
     <row r="1140">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="E1140" t="n">
-        <v>0</v>
+        <v>1.874194306393822e-05</v>
       </c>
     </row>
     <row r="1141">
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="E1141" t="n">
-        <v>0</v>
+        <v>0.0001509950039238412</v>
       </c>
     </row>
     <row r="1142">
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="E1142" t="n">
-        <v>0</v>
+        <v>3.56413770376039e-24</v>
       </c>
     </row>
     <row r="1143">
@@ -19871,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="E1143" t="n">
-        <v>0</v>
+        <v>2.080214528650215e-23</v>
       </c>
     </row>
     <row r="1144">
@@ -19888,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="E1144" t="n">
-        <v>0</v>
+        <v>0.000163162951528837</v>
       </c>
     </row>
     <row r="1145">
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
       <c r="E1145" t="n">
-        <v>0</v>
+        <v>0.001120814208341814</v>
       </c>
     </row>
     <row r="1146">
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="E1146" t="n">
-        <v>0</v>
+        <v>1.874194306393828e-05</v>
       </c>
     </row>
     <row r="1147">
@@ -19939,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="E1147" t="n">
-        <v>0</v>
+        <v>0.0001509950039238417</v>
       </c>
     </row>
     <row r="1148">

--- a/exports/G_final.xlsx
+++ b/exports/G_final.xlsx
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1620370370370394</v>
+        <v>0.1617840175593703</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004629629629629665</v>
+        <v>0.004605987929407658</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1585664223419465</v>
+        <v>0.1582984680890685</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0005335925568303422</v>
+        <v>0.0005326037994684505</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0817287330633822</v>
+        <v>0.1603668563317231</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0007135457987615727</v>
+        <v>0.0009764042817559613</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.16203703703704</v>
+        <v>0.1617864841989028</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0.004629629629629681</v>
+        <v>0.004606005732226089</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1586053538559447</v>
+        <v>0.1583399296853588</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0005688541694211353</v>
+        <v>0.0005678002509340638</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08172934731176934</v>
+        <v>0.1603995389052432</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0007151914296359135</v>
+        <v>0.000978576952904637</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>8.131014846639616e-24</v>
+        <v>5.229716190579399e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>4.012383171410794e-26</v>
+        <v>2.466674125990908e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>8.1463137279729e-05</v>
+        <v>8.682920685953917e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>4.497383413882572e-05</v>
+        <v>4.48929545859324e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.000277533481959347</v>
+        <v>4.201815617937265e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>4.334271658402464e-06</v>
+        <v>4.605650570785568e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>7.824066324063281e-24</v>
+        <v>5.032802584726101e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>8.547163739547896e-27</v>
+        <v>5.457259843527531e-09</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>7.717713739816694e-05</v>
+        <v>8.233136413572711e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>2.15661870589908e-06</v>
+        <v>2.157848701006847e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0004391258924912675</v>
+        <v>5.885084228079714e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>3.578509959745192e-06</v>
+        <v>2.96970438570707e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>7.29895994129822e-24</v>
+        <v>4.696388913353561e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>6.455958441798284e-26</v>
+        <v>3.1099496972908e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>7.2549164721097e-05</v>
+        <v>7.733647558125219e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>2.056831409601801e-06</v>
+        <v>2.057900248370019e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>2.932219729438639e-06</v>
+        <v>2.82157055188426e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>6.983305845245535e-24</v>
+        <v>4.515434056747753e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>1.5565126575538e-25</v>
+        <v>7.311220633608263e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>7.083996888762454e-05</v>
+        <v>7.549029115418041e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1.898408815476676e-06</v>
+        <v>1.899657486189642e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>2.117728969277728e-06</v>
+        <v>2.039462983074753e-06</v>
       </c>
     </row>
     <row r="91">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>6.041237466950773e-24</v>
+        <v>3.976980823075481e-06</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>6.012231429080746e-27</v>
+        <v>3.957885501371849e-09</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>6.593303554658005e-05</v>
+        <v>7.018062813971138e-05</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>1.82783886194114e-06</v>
+        <v>1.828730863672977e-06</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1.13908443857079e-06</v>
+        <v>1.096705219695716e-06</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>5.954068405254881e-24</v>
+        <v>3.919600674367374e-06</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>6.524557300826776e-27</v>
+        <v>4.295154055533219e-09</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>6.510707662329199e-05</v>
+        <v>6.928930984152302e-05</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1.687554555315284e-06</v>
+        <v>1.688741186203209e-06</v>
       </c>
     </row>
     <row r="102">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>5.33817556339736e-24</v>
+        <v>3.514179363526831e-06</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>6.23536070954431e-27</v>
+        <v>4.10480811546934e-09</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>5.99296316908011e-05</v>
+        <v>6.36780332201348e-05</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>1.636008072537979e-06</v>
+        <v>1.636985798597107e-06</v>
       </c>
     </row>
     <row r="108">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>4.732819707224486e-24</v>
+        <v>3.115667600530086e-06</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>1.059181423913585e-26</v>
+        <v>6.972843399132983e-09</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>5.989998979790679e-05</v>
+        <v>6.364898725543212e-05</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>1.546380468338252e-06</v>
+        <v>1.549640135123718e-06</v>
       </c>
     </row>
     <row r="114">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>5.03088567114367e-24</v>
+        <v>3.311907926620894e-06</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>9.85490527922687e-25</v>
+        <v>6.487911947642246e-07</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>6.896324323556508e-05</v>
+        <v>7.307931315247956e-05</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>2.227690258528113e-05</v>
+        <v>2.284865598154709e-05</v>
       </c>
     </row>
     <row r="120">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>2.536755847714313e-05</v>
+        <v>2.392477689738555e-05</v>
       </c>
     </row>
     <row r="164">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>1.2699697039284e-05</v>
+        <v>1.19776933677042e-05</v>
       </c>
     </row>
     <row r="170">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>1.012676299219692e-08</v>
+        <v>9.736903495782187e-09</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>4.968360826208356e-23</v>
+        <v>3.195756731233027e-05</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>2.330809683922963e-25</v>
+        <v>1.413521387804347e-07</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0.000505939331038106</v>
+        <v>0.0005386590669537054</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0004666527778777714</v>
+        <v>0.0004658009842667772</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0.07884566708929407</v>
+        <v>0.0005068367645867014</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0.001102195019714658</v>
+        <v>0.001039441795651603</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>4.968388892836845e-23</v>
+        <v>3.195773780916682e-05</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>2.408193388137984e-25</v>
+        <v>1.460529801279255e-07</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0005070194891681574</v>
+        <v>0.0005397371749401316</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0004964342806062848</v>
+        <v>0.0004955259616067578</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0.07886860633629152</v>
+        <v>0.0005288927868683239</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.001102206408477993</v>
+        <v>0.001039452745970248</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>3.508329274136235e-28</v>
+        <v>2.13121088991119e-10</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>9.672964998689903e-27</v>
+        <v>5.876052882183708e-09</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>1.350197937950243e-06</v>
+        <v>1.347635257896025e-06</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>3.722688600348527e-05</v>
+        <v>3.715622925341897e-05</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>2.867406459162079e-05</v>
+        <v>2.757003347211833e-05</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>1.423595706714241e-08</v>
+        <v>1.368790109255207e-08</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>9.226784324698179e-32</v>
+        <v>5.936127518628995e-14</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>9.345676936237892e-35</v>
+        <v>5.954737670009725e-17</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>9.170643990168004e-13</v>
+        <v>9.775621850835562e-13</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>3.33648516069233e-14</v>
+        <v>3.338154299090988e-14</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>3.07320089289049e-14</v>
+        <v>5.012618616839069e-14</v>
       </c>
     </row>
     <row r="199">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>1.845356237986288e-31</v>
+        <v>1.18722510037021e-13</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1.869134752215563e-34</v>
+        <v>1.19094712938181e-16</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>1.833646686132101e-12</v>
+        <v>1.954641865947592e-12</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>5.345434750989629e-14</v>
+        <v>5.347804689928704e-14</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>8.816123607472155e-14</v>
+        <v>5.490551836417106e-14</v>
       </c>
     </row>
     <row r="205">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>1.356104015963794e-31</v>
+        <v>8.927309283590709e-14</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>1.32087513730533e-34</v>
+        <v>8.695395519170777e-17</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>1.480152420715955e-12</v>
+        <v>1.575502045347176e-12</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>4.16607371825072e-14</v>
+        <v>4.167911110096192e-14</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>6.830970260119679e-14</v>
+        <v>6.586218477094578e-14</v>
       </c>
     </row>
     <row r="211">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>1.140353112609523e-25</v>
+        <v>7.507059956859162e-08</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>5.661595643735683e-29</v>
+        <v>3.72708571385681e-11</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>6.011030481335803e-12</v>
+        <v>6.39827283038211e-12</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1.671903377183579e-13</v>
+        <v>1.672702158196013e-13</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>9.95207325445313e-14</v>
+        <v>9.590182093626089e-14</v>
       </c>
     </row>
     <row r="217">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>5.748713067208961e-25</v>
+        <v>3.784436214217308e-07</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>2.854094937020632e-28</v>
+        <v>1.878879692224833e-10</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>4.488717797222806e-12</v>
+        <v>4.777340554180347e-12</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>1.160987179439426e-13</v>
+        <v>1.161812499924782e-13</v>
       </c>
     </row>
     <row r="222">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>2.924559524726829e-25</v>
+        <v>1.92528310219407e-07</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>1.451972449845612e-28</v>
+        <v>9.5585608666118e-11</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>2.907370990202439e-06</v>
+        <v>3.083689799694254e-06</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>1.443509429904737e-09</v>
+        <v>1.531047269622238e-09</v>
       </c>
     </row>
     <row r="228">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>4.332891981482113e-24</v>
+        <v>2.85241081762212e-06</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>2.151173007589158e-27</v>
+        <v>1.416150964218404e-09</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>4.942564041503633e-05</v>
+        <v>5.242308031978403e-05</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>2.453859617467796e-08</v>
+        <v>2.602675023323604e-08</v>
       </c>
     </row>
     <row r="234">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>3.334147992283803e-24</v>
+        <v>2.194935803115376e-06</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>3.337503214611651e-27</v>
+        <v>2.197144613643668e-09</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>4.473336228989242e-05</v>
+        <v>4.736695965039216e-05</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>2.220987236791856e-08</v>
+        <v>2.351739016069422e-08</v>
       </c>
     </row>
     <row r="240">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>4.546342988222185e-12</v>
       </c>
     </row>
     <row r="266">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>2.177055199998435e-05</v>
+        <v>2.05891775971419e-05</v>
       </c>
     </row>
     <row r="272">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>4.831740913451701e-05</v>
+        <v>4.572066199872354e-05</v>
       </c>
     </row>
     <row r="278">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>4.155878998778356e-05</v>
+        <v>3.924707515214852e-05</v>
       </c>
     </row>
     <row r="284">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>1.268378354916927e-05</v>
+        <v>1.196238909125093e-05</v>
       </c>
     </row>
     <row r="290">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>8.450430259650018e-16</v>
+        <v>1.162078970557453e-16</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>4.457127855833936e-23</v>
+        <v>2.867647429108453e-05</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>2.286519985998239e-23</v>
+        <v>1.056514149560197e-05</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>0.0004587905341952607</v>
+        <v>0.0004879264316371645</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0.0004090989706616151</v>
+        <v>0.0004083699196228663</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>0.0003693621608448526</v>
+        <v>0.0003547781827370884</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.0008156606517391976</v>
+        <v>0.0007709762950477742</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>4.457127855833951e-23</v>
+        <v>2.867647429108463e-05</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>2.286519985998247e-23</v>
+        <v>1.056514149560201e-05</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>0.0004597374729047651</v>
+        <v>0.0004888716156286829</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>0.0004352074236521937</v>
+        <v>0.0004344299925318277</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>0.0003848352987469286</v>
+        <v>0.0003696861938786856</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>0.0008156683337657632</v>
+        <v>0.0007709836965030157</v>
       </c>
     </row>
     <row r="308">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>1.186886485094986e-06</v>
+        <v>1.184695430705396e-06</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>3.272415594619032e-05</v>
+        <v>3.266374544659164e-05</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>1.934142632030204e-05</v>
+        <v>1.863501772570385e-05</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>9.602535160511391e-09</v>
+        <v>9.25182093421897e-09</v>
       </c>
     </row>
     <row r="314">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>5.048777309773904e-09</v>
+        <v>5.052460017315342e-09</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>1.392020029694804e-07</v>
+        <v>1.393035404774087e-07</v>
       </c>
     </row>
     <row r="318">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>1.616219968694739e-25</v>
+        <v>1.06398065502038e-07</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>8.024128530904274e-29</v>
+        <v>5.282398247544333e-11</v>
       </c>
     </row>
     <row r="328">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>5.656763382741146e-25</v>
+        <v>3.723928008465564e-07</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>2.808441754910707e-28</v>
+        <v>1.84883725968899e-10</v>
       </c>
     </row>
     <row r="334">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>4.100597146753977e-32</v>
+        <v>2.699464708650966e-14</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>2.035844080406106e-35</v>
+        <v>1.340216814939414e-17</v>
       </c>
     </row>
     <row r="340">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>2.095245003481413e-25</v>
+        <v>1.379341237174034e-07</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>2.097353861210516e-28</v>
+        <v>1.380729540759304e-10</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>2.434312261986577e-06</v>
+        <v>2.577904935836588e-06</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>1.208580359394985e-09</v>
+        <v>1.279870554496927e-09</v>
       </c>
     </row>
     <row r="348">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>3.561943810772627e-24</v>
+        <v>2.344898078521735e-06</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>3.565528911764808e-27</v>
+        <v>2.347258222827412e-09</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>4.138362604289478e-05</v>
+        <v>4.382472023196105e-05</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>2.054602378545025e-08</v>
+        <v>2.175796640295823e-08</v>
       </c>
     </row>
     <row r="354">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>2.861885511262138e-24</v>
+        <v>1.884044626133141e-06</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>4.411206702083999e-26</v>
+        <v>2.904201176400677e-08</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>3.916681710731388e-05</v>
+        <v>4.141170198405414e-05</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>1.944534659284772e-08</v>
+        <v>2.055987587332645e-08</v>
       </c>
     </row>
     <row r="360">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>1.742420629801654e-05</v>
+        <v>1.651961138051523e-05</v>
       </c>
     </row>
     <row r="380">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>3.56870193108818e-05</v>
+        <v>3.385234995757582e-05</v>
       </c>
     </row>
     <row r="386">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>2.847235754684507e-05</v>
+        <v>2.694665306994895e-05</v>
       </c>
     </row>
     <row r="392">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>6.220164962222708e-06</v>
+        <v>5.882630707882732e-06</v>
       </c>
     </row>
     <row r="398">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>9.306186880879684e-16</v>
+        <v>1.826623700775641e-12</v>
       </c>
     </row>
     <row r="404">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>3.68417356891796e-23</v>
+        <v>2.425316887616074e-05</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>1.703381667920843e-25</v>
+        <v>1.12134176929735e-07</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>0.0004166431213561808</v>
+        <v>0.0004424699524108035</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>0.0003611826536914114</v>
+        <v>0.0003605643549857659</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>0.0002491446871548314</v>
+        <v>0.0002397827036778875</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>0.000576070790569281</v>
+        <v>0.0005458751764189342</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>3.684173568917973e-23</v>
+        <v>2.425316887616083e-05</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>1.703381667920849e-25</v>
+        <v>1.121341769297353e-07</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>0.000417482935339589</v>
+        <v>0.0004433082805974234</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>0.0003843375249481989</v>
+        <v>0.0003836782607025274</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>0.0002491446871548322</v>
+        <v>0.0002397827036778884</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0.000576070790569283</v>
+        <v>0.0005458751764189359</v>
       </c>
     </row>
     <row r="428">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>1.052711800784014e-06</v>
+        <v>1.050860992181357e-06</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>2.902476822161639e-05</v>
+        <v>2.897373878442885e-05</v>
       </c>
     </row>
     <row r="432">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>4.626456653849768e-09</v>
+        <v>4.636573140604215e-09</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>1.275580191704293e-07</v>
+        <v>1.278369451623734e-07</v>
       </c>
     </row>
     <row r="438">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>1.639291710509221e-35</v>
+        <v>1.079237306762276e-17</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>2.241704730897424e-34</v>
+        <v>1.475839449940524e-16</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>2.664607225451485e-18</v>
+        <v>2.827652870966864e-18</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>3.643807008224636e-17</v>
+        <v>3.866769274525925e-17</v>
       </c>
     </row>
     <row r="444">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>1.072045946206142e-25</v>
+        <v>7.05748417027722e-08</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>1.309860032116486e-27</v>
+        <v>8.623272662954915e-10</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>6.927985738813118e-18</v>
+        <v>7.351904842580744e-18</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>9.473907729005069e-17</v>
+        <v>1.005361020315379e-16</v>
       </c>
     </row>
     <row r="450">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>3.752852983724477e-25</v>
+        <v>2.470575142628085e-07</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>5.537015556062447e-27</v>
+        <v>3.645215710206084e-09</v>
       </c>
     </row>
     <row r="454">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>4.631867368595873e-26</v>
+        <v>3.049261968728373e-08</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>4.808575359817421e-27</v>
+        <v>3.165665908439712e-09</v>
       </c>
     </row>
     <row r="460">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>5.474883932975421e-25</v>
+        <v>3.604239220379829e-07</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>6.590266351918586e-27</v>
+        <v>4.338934895953393e-09</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>2.138402127131405e-06</v>
+        <v>2.260816843409872e-06</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>2.786690766439279e-08</v>
+        <v>2.802432024257341e-08</v>
       </c>
     </row>
     <row r="468">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>3.055357837186204e-24</v>
+        <v>2.011412163946264e-06</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>1.057771132217144e-25</v>
+        <v>6.964249780984833e-08</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>3.63531151448576e-05</v>
+        <v>3.843418129225521e-05</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>4.737410659115633e-07</v>
+        <v>4.764171002772441e-07</v>
       </c>
     </row>
     <row r="474">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>2.382355174897766e-24</v>
+        <v>1.568359844486361e-06</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>4.63066971570926e-25</v>
+        <v>3.048881187928999e-07</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>3.433347503900553e-05</v>
+        <v>3.624274670477035e-05</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>7.015015778136214e-07</v>
+        <v>7.065472107235422e-07</v>
       </c>
     </row>
     <row r="480">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>1.732436169079161e-05</v>
+        <v>1.646257626372987e-05</v>
       </c>
     </row>
     <row r="488">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>3.148295931886586e-05</v>
+        <v>2.99150152155821e-05</v>
       </c>
     </row>
     <row r="494">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>4.179514398434527e-05</v>
+        <v>3.975373172691896e-05</v>
       </c>
     </row>
     <row r="500">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>6.509899373284299e-06</v>
+        <v>6.204333094562953e-06</v>
       </c>
     </row>
     <row r="506">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>2.834796939106497e-06</v>
+        <v>2.723339738755745e-06</v>
       </c>
     </row>
     <row r="512">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>1.470920740963881e-05</v>
+        <v>1.424438355728812e-05</v>
       </c>
     </row>
     <row r="518">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>3.269490019410977e-23</v>
+        <v>2.152344546823407e-05</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>1.40346656817647e-24</v>
+        <v>9.239495668502333e-07</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>0.0003785643391159649</v>
+        <v>0.0004013454558828914</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>0.0003323282406400455</v>
+        <v>0.0003322875946425458</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>0.0001787617490690985</v>
+        <v>0.0001723916795644679</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0.0003919638128561838</v>
+        <v>0.0003720748388909902</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>3.269773289883394e-23</v>
+        <v>2.152531034057072e-05</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>1.442203344190236e-24</v>
+        <v>9.494513925024534e-07</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>0.000379435671469012</v>
+        <v>0.0004022181578492174</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>0.000355671511018242</v>
+        <v>0.0003556674018449953</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>0.0001842690287614097</v>
+        <v>0.0001777205837254874</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0.0003957603394664049</v>
+        <v>0.0003756879478609632</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>5.970656488907244e-27</v>
+        <v>3.930699794653745e-09</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>8.164775562483077e-26</v>
+        <v>5.375167988054842e-08</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>1.663658398541325e-06</v>
+        <v>1.666547796738493e-06</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>4.50186793344868e-05</v>
+        <v>4.50968124571368e-05</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>4.824568042644597e-06</v>
+        <v>4.662173594178631e-06</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>8.104942300727763e-06</v>
+        <v>7.713445195298231e-06</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>6.206219631693815e-27</v>
+        <v>4.085789658694631e-09</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>8.486904325914501e-26</v>
+        <v>5.58725085268831e-08</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>1.60621550653676e-06</v>
+        <v>1.609626001289318e-06</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>4.090457775045073e-05</v>
+        <v>4.098997236304812e-05</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>6.285130005716545e-06</v>
+        <v>6.083326830318512e-06</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>7.233149498501945e-06</v>
+        <v>6.88783264683808e-06</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>6.794389883755286e-27</v>
+        <v>4.473025066002001e-09</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>9.291217571791745e-26</v>
+        <v>6.116788969038738e-08</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>1.594075613387223e-06</v>
+        <v>1.597686110351552e-06</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>3.458742286550508e-05</v>
+        <v>3.466288696945468e-05</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>3.522965813748557e-06</v>
+        <v>3.40525503635161e-06</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>5.524665993255751e-06</v>
+        <v>5.2691974891437e-06</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>8.322050888474583e-27</v>
+        <v>5.478882982364871e-09</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>1.138025516114238e-25</v>
+        <v>7.492274101344062e-08</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>6.226687459627418e-07</v>
+        <v>6.243934004363956e-07</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>8.514893747452965e-06</v>
+        <v>8.538478116653199e-06</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>1.390005025807931e-06</v>
+        <v>1.344950023283548e-06</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>5.08243855769256e-06</v>
+        <v>4.849570304467317e-06</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>1.302265552895043e-26</v>
+        <v>8.573903380778149e-09</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>2.095283059203356e-25</v>
+        <v>1.379500150118529e-07</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>5.743512293145501e-07</v>
+        <v>5.762570546462291e-07</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>7.854159572070475e-06</v>
+        <v>7.880221423264502e-06</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>1.234423225843778e-06</v>
+        <v>1.195715164819876e-06</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>3.739258628051432e-06</v>
+        <v>3.574995345833779e-06</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>6.816846545178059e-26</v>
+        <v>4.48791703498099e-08</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>5.661564731168031e-25</v>
+        <v>3.72755023918153e-07</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>4.924108717904419e-07</v>
+        <v>4.940468025820171e-07</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>6.733638520596604e-06</v>
+        <v>6.756009607886219e-06</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>1.006953793007099e-06</v>
+        <v>9.77277342452202e-07</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>3.659085389960084e-06</v>
+        <v>3.499984083465082e-06</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>6.26379534310188e-25</v>
+        <v>4.123749695054551e-07</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>2.629173267236368e-24</v>
+        <v>1.731075185739724e-06</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>2.008929900085774e-06</v>
+        <v>2.115354738027183e-06</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>1.668572967827954e-06</v>
+        <v>1.696472272690455e-06</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>9.667031747076089e-07</v>
+        <v>9.390314554337401e-07</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>3.161470763684547e-06</v>
+        <v>3.035914085903063e-06</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>2.916317085441108e-24</v>
+        <v>1.919912741342208e-06</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>1.012420467380264e-23</v>
+        <v>6.665883867190283e-06</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>3.415207039367001e-05</v>
+        <v>3.596130652324065e-05</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>2.836595814109895e-05</v>
+        <v>2.884024996360501e-05</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>7.956165380823215e-07</v>
+        <v>7.739539013909051e-07</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>3.161576013246224e-06</v>
+        <v>3.040321515295719e-06</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>8.722899784923974e-25</v>
+        <v>5.740663233130891e-07</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>2.065694251643866e-24</v>
+        <v>1.359556684664964e-06</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>3.726414057537984e-05</v>
+        <v>3.927023128245262e-05</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>9.021603106042247e-05</v>
+        <v>9.455251655612406e-05</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>1.098408589988747e-06</v>
+        <v>1.06925040144739e-06</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>1.056906397166827e-05</v>
+        <v>1.026359315463428e-05</v>
       </c>
     </row>
     <row r="602">
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>1.732436463428437e-05</v>
+        <v>1.646258105820501e-05</v>
       </c>
     </row>
     <row r="608">
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>6.285651352186736e-06</v>
+        <v>5.982016096737063e-06</v>
       </c>
     </row>
     <row r="614">
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>2.288875089291851e-05</v>
+        <v>2.18263036750916e-05</v>
       </c>
     </row>
     <row r="620">
@@ -11065,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>4.331872075640043e-06</v>
+        <v>4.139380444914448e-06</v>
       </c>
     </row>
     <row r="626">
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>2.834798200689466e-06</v>
+        <v>2.723341925389701e-06</v>
       </c>
     </row>
     <row r="632">
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>1.470920712120717e-05</v>
+        <v>1.424438253180255e-05</v>
       </c>
     </row>
     <row r="638">
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>2.728546920141877e-23</v>
+        <v>1.796247693748455e-05</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>2.428437503589657e-24</v>
+        <v>1.59872886262595e-06</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>0.000323434954720755</v>
+        <v>0.0003423291145744639</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>0.0002812757520077194</v>
+        <v>0.0002818277163900293</v>
       </c>
     </row>
     <row r="660">
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>0.0001050124102444018</v>
+        <v>0.0001014065681994768</v>
       </c>
     </row>
     <row r="661">
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>0.0002469648010957772</v>
+        <v>0.0002348717700774587</v>
       </c>
     </row>
     <row r="662">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>2.728830190587276e-23</v>
+        <v>1.796434180964335e-05</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>2.467174275909201e-24</v>
+        <v>1.624230685846128e-06</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>0.0003234839312844335</v>
+        <v>0.0003423781793159041</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>0.0002819454985439527</v>
+        <v>0.0002824986687428004</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="E666" t="n">
-        <v>0.0001105196890959978</v>
+        <v>0.000106735471673263</v>
       </c>
     </row>
     <row r="667">
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>0.0002507613273439328</v>
+        <v>0.0002384848787028584</v>
       </c>
     </row>
     <row r="668">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>5.970655687779737e-27</v>
+        <v>3.930699267242444e-09</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>8.164774466954251e-26</v>
+        <v>5.375167266828474e-08</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>1.001588786768006e-07</v>
+        <v>1.00353427084616e-07</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>1.910764082213956e-06</v>
+        <v>1.914596346532153e-06</v>
       </c>
     </row>
     <row r="672">
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>4.824567515313946e-06</v>
+        <v>4.662173087302735e-06</v>
       </c>
     </row>
     <row r="673">
@@ -11881,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>8.104941207414108e-06</v>
+        <v>7.713444154791629e-06</v>
       </c>
     </row>
     <row r="674">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>6.034018675481727e-27</v>
+        <v>3.972422901347629e-09</v>
       </c>
     </row>
     <row r="675">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>8.251422321259099e-26</v>
+        <v>5.432223657319688e-08</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E676" t="n">
-        <v>3.044913286005104e-07</v>
+        <v>3.052454038390616e-07</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>5.014182075112682e-06</v>
+        <v>5.026335405588255e-06</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="E678" t="n">
-        <v>6.285129980154597e-06</v>
+        <v>6.083326703396255e-06</v>
       </c>
     </row>
     <row r="679">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>7.233148771197553e-06</v>
+        <v>6.88783195522615e-06</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>6.278096662260621e-27</v>
+        <v>4.13312590037471e-09</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>8.585194995251453e-26</v>
+        <v>5.65198239268016e-08</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>6.737717883646413e-07</v>
+        <v>6.75503054473056e-07</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>9.213719991468865e-06</v>
+        <v>9.23739477463135e-06</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>3.522966098164473e-06</v>
+        <v>3.405255311091144e-06</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>5.524665935877265e-06</v>
+        <v>5.269197434394039e-06</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>7.818052683188712e-27</v>
+        <v>5.147071893234238e-09</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>1.069105978756235e-25</v>
+        <v>7.038537033624222e-08</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="E688" t="n">
-        <v>6.22595967003662e-07</v>
+        <v>6.243161760516629e-07</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>8.513898507033989e-06</v>
+        <v>8.537422085762014e-06</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>1.390004725759705e-06</v>
+        <v>1.344949733134679e-06</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>5.082437290682533e-06</v>
+        <v>4.849569096773786e-06</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="E692" t="n">
-        <v>1.282288948715857e-26</v>
+        <v>8.442383028846713e-09</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>2.067970357064089e-25</v>
+        <v>1.36151823378965e-07</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>5.743514390201929e-07</v>
+        <v>5.762572650476839e-07</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>7.854162439761007e-06</v>
+        <v>7.880224300470146e-06</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>1.234423679726035e-06</v>
+        <v>1.195715604439274e-06</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>3.739259991768212e-06</v>
+        <v>3.574996649641352e-06</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="E698" t="n">
-        <v>2.990075476874753e-26</v>
+        <v>1.968666777486731e-08</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>5.661183044812133e-25</v>
+        <v>3.727298966486637e-07</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E700" t="n">
-        <v>4.924110126703436e-07</v>
+        <v>4.940469439299623e-07</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>6.733640447106326e-06</v>
+        <v>6.756011540796364e-06</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>1.006954070132827e-06</v>
+        <v>9.772776114021102e-07</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>3.659086401362234e-06</v>
+        <v>3.499985050759704e-06</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="E704" t="n">
-        <v>1.486913878369204e-25</v>
+        <v>9.789996049803884e-08</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>2.033330326133733e-24</v>
+        <v>1.338765892943889e-06</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>3.746763916243122e-08</v>
+        <v>3.809973129088547e-08</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>5.123638668305655e-07</v>
+        <v>5.210076237997187e-07</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>9.667033144590952e-07</v>
+        <v>9.390315911224959e-07</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>3.161471189329077e-06</v>
+        <v>3.035914494401694e-06</v>
       </c>
     </row>
     <row r="710">
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="E712" t="n">
-        <v>6.369547539241382e-07</v>
+        <v>6.477004025728707e-07</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>8.710252580950348e-06</v>
+        <v>8.85719757712154e-06</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="E714" t="n">
-        <v>7.956159310753071e-07</v>
+        <v>7.739533109111646e-07</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>3.161573601156072e-06</v>
+        <v>3.040319195715372e-06</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E716" t="n">
-        <v>1.886734329060514e-25</v>
+        <v>1.241666958740215e-07</v>
       </c>
     </row>
     <row r="717">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>1.492616360493971e-24</v>
+        <v>9.823097749355877e-07</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>8.808028063153109e-06</v>
+        <v>9.26627595750195e-06</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>7.794152903809457e-05</v>
+        <v>8.166808257040085e-05</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>1.098408589988747e-06</v>
+        <v>1.06925040144739e-06</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>1.056906397166827e-05</v>
+        <v>1.026359315463428e-05</v>
       </c>
     </row>
     <row r="722">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>2.246547195538947e-23</v>
+        <v>1.478948123421631e-05</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>2.624889153098911e-24</v>
+        <v>1.728071169597238e-06</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>0.000271267774182363</v>
+        <v>0.000286655400998448</v>
       </c>
     </row>
     <row r="779">
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>0.0002616896939364968</v>
+        <v>0.0002623447410348676</v>
       </c>
     </row>
     <row r="780">
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="E780" t="n">
-        <v>5.283908886708357e-05</v>
+        <v>5.106253196712829e-05</v>
       </c>
     </row>
     <row r="781">
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>0.0001614546361337845</v>
+        <v>0.0001538797068640719</v>
       </c>
     </row>
     <row r="782">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>2.246547195538954e-23</v>
+        <v>1.478948123421636e-05</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>2.624889153098921e-24</v>
+        <v>1.728071169597244e-06</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="E784" t="n">
-        <v>0.0002712677741823638</v>
+        <v>0.000286655400998449</v>
       </c>
     </row>
     <row r="785">
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>0.0002616896939364977</v>
+        <v>0.0002623447410348685</v>
       </c>
     </row>
     <row r="786">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E786" t="n">
-        <v>5.283908886708374e-05</v>
+        <v>5.106253196712848e-05</v>
       </c>
     </row>
     <row r="787">
@@ -13819,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>0.0001614546361337851</v>
+        <v>0.0001538797068640725</v>
       </c>
     </row>
     <row r="788">
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="E896" t="n">
-        <v>1.921916435205624e-23</v>
+        <v>1.265242502459989e-05</v>
       </c>
     </row>
     <row r="897">
@@ -15689,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>5.361282400615377e-24</v>
+        <v>3.52977480316834e-06</v>
       </c>
     </row>
     <row r="898">
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="E898" t="n">
-        <v>0.000237739941969104</v>
+        <v>0.0002508559742788578</v>
       </c>
     </row>
     <row r="899">
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>0.0002328825473993468</v>
+        <v>0.0002336321298086355</v>
       </c>
     </row>
     <row r="900">
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="E900" t="n">
-        <v>3.263842178055256e-05</v>
+        <v>3.160994720995151e-05</v>
       </c>
     </row>
     <row r="901">
@@ -15757,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>0.0001090717903772366</v>
+        <v>0.0001041988574537713</v>
       </c>
     </row>
     <row r="902">
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="E902" t="n">
-        <v>1.92191643520563e-23</v>
+        <v>1.265242502459993e-05</v>
       </c>
     </row>
     <row r="903">
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="E903" t="n">
-        <v>5.361282400615397e-24</v>
+        <v>3.529774803168351e-06</v>
       </c>
     </row>
     <row r="904">
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="E904" t="n">
-        <v>0.0002377399419691048</v>
+        <v>0.0002508559742788586</v>
       </c>
     </row>
     <row r="905">
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="E905" t="n">
-        <v>0.0002328825473993476</v>
+        <v>0.0002336321298086363</v>
       </c>
     </row>
     <row r="906">
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="E906" t="n">
-        <v>3.263842178055267e-05</v>
+        <v>3.160994720995162e-05</v>
       </c>
     </row>
     <row r="907">
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="E907" t="n">
-        <v>0.000109071790377237</v>
+        <v>0.0001041988574537716</v>
       </c>
     </row>
     <row r="908">
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="E1016" t="n">
-        <v>1.572449925908539e-23</v>
+        <v>1.035178743134804e-05</v>
       </c>
     </row>
     <row r="1017">
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="E1017" t="n">
-        <v>6.60537624270354e-23</v>
+        <v>4.349034930725182e-05</v>
       </c>
     </row>
     <row r="1018">
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="E1018" t="n">
-        <v>0.0002084290076795218</v>
+        <v>0.0002195809798071414</v>
       </c>
     </row>
     <row r="1019">
@@ -17763,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="E1019" t="n">
-        <v>0.0002755205516592432</v>
+        <v>0.0002800013389737004</v>
       </c>
     </row>
     <row r="1020">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="E1020" t="n">
-        <v>2.455910395681087e-05</v>
+        <v>2.385620688811914e-05</v>
       </c>
     </row>
     <row r="1021">
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="E1021" t="n">
-        <v>8.625314837080349e-05</v>
+        <v>8.275048593033989e-05</v>
       </c>
     </row>
     <row r="1022">
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="E1022" t="n">
-        <v>1.572449925908544e-23</v>
+        <v>1.035178743134808e-05</v>
       </c>
     </row>
     <row r="1023">
@@ -17831,7 +17831,7 @@
         <v>1</v>
       </c>
       <c r="E1023" t="n">
-        <v>6.605376242703563e-23</v>
+        <v>4.349034930725197e-05</v>
       </c>
     </row>
     <row r="1024">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="E1024" t="n">
-        <v>0.0002084290076795225</v>
+        <v>0.0002195809798071421</v>
       </c>
     </row>
     <row r="1025">
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="E1025" t="n">
-        <v>0.0002755205516592441</v>
+        <v>0.0002800013389737014</v>
       </c>
     </row>
     <row r="1026">
@@ -17882,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="E1026" t="n">
-        <v>2.455910395681095e-05</v>
+        <v>2.385620688811922e-05</v>
       </c>
     </row>
     <row r="1027">
@@ -17899,7 +17899,7 @@
         <v>1</v>
       </c>
       <c r="E1027" t="n">
-        <v>8.62531483708038e-05</v>
+        <v>8.275048593034016e-05</v>
       </c>
     </row>
     <row r="1028">
@@ -19752,7 +19752,7 @@
         <v>0</v>
       </c>
       <c r="E1136" t="n">
-        <v>3.564137703760376e-24</v>
+        <v>2.345586203795457e-06</v>
       </c>
     </row>
     <row r="1137">
@@ -19769,7 +19769,7 @@
         <v>1</v>
       </c>
       <c r="E1137" t="n">
-        <v>2.080214528650208e-23</v>
+        <v>1.369030433993877e-05</v>
       </c>
     </row>
     <row r="1138">
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="E1138" t="n">
-        <v>0.0001631629515288365</v>
+        <v>0.0001716822189740051</v>
       </c>
     </row>
     <row r="1139">
@@ -19803,7 +19803,7 @@
         <v>1</v>
       </c>
       <c r="E1139" t="n">
-        <v>0.00112081420834181</v>
+        <v>0.001172533288598841</v>
       </c>
     </row>
     <row r="1140">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="E1140" t="n">
-        <v>1.874194306393822e-05</v>
+        <v>1.824088124465519e-05</v>
       </c>
     </row>
     <row r="1141">
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="E1141" t="n">
-        <v>0.0001509950039238412</v>
+        <v>0.0001464358106078797</v>
       </c>
     </row>
     <row r="1142">
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="E1142" t="n">
-        <v>3.56413770376039e-24</v>
+        <v>2.345586203795465e-06</v>
       </c>
     </row>
     <row r="1143">
@@ -19871,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="E1143" t="n">
-        <v>2.080214528650215e-23</v>
+        <v>1.369030433993882e-05</v>
       </c>
     </row>
     <row r="1144">
@@ -19888,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="E1144" t="n">
-        <v>0.000163162951528837</v>
+        <v>0.0001716822189740057</v>
       </c>
     </row>
     <row r="1145">
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
       <c r="E1145" t="n">
-        <v>0.001120814208341814</v>
+        <v>0.001172533288598845</v>
       </c>
     </row>
     <row r="1146">
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="E1146" t="n">
-        <v>1.874194306393828e-05</v>
+        <v>1.824088124465525e-05</v>
       </c>
     </row>
     <row r="1147">
@@ -19939,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="E1147" t="n">
-        <v>0.0001509950039238417</v>
+        <v>0.0001464358106078802</v>
       </c>
     </row>
     <row r="1148">

--- a/exports/G_final.xlsx
+++ b/exports/G_final.xlsx
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1617840175593703</v>
+        <v>0.1620370370370394</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004605987929407658</v>
+        <v>0.004629629629629665</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1582984680890685</v>
+        <v>0.1585664223419465</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0005326037994684505</v>
+        <v>0.0005335925568303422</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1603668563317231</v>
+        <v>0.0817287330633822</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0009764042817559613</v>
+        <v>0.0007135457987615727</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1617864841989028</v>
+        <v>0.16203703703704</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0.004606005732226089</v>
+        <v>0.004629629629629681</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1583399296853588</v>
+        <v>0.1586053538559447</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0005678002509340638</v>
+        <v>0.0005688541694211353</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1603995389052432</v>
+        <v>0.08172934731176934</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.000978576952904637</v>
+        <v>0.0007151914296359135</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>5.229716190579399e-06</v>
+        <v>8.131014846639616e-24</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>2.466674125990908e-08</v>
+        <v>4.012383171410794e-26</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>8.682920685953917e-05</v>
+        <v>8.1463137279729e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>4.48929545859324e-05</v>
+        <v>4.497383413882572e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>4.201815617937265e-05</v>
+        <v>0.000277533481959347</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>4.605650570785568e-06</v>
+        <v>4.334271658402464e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>5.032802584726101e-06</v>
+        <v>7.824066324063281e-24</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>5.457259843527531e-09</v>
+        <v>8.547163739547896e-27</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>8.233136413572711e-05</v>
+        <v>7.717713739816694e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>2.157848701006847e-06</v>
+        <v>2.15661870589908e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>5.885084228079714e-06</v>
+        <v>0.0004391258924912675</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>2.96970438570707e-06</v>
+        <v>3.578509959745192e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>4.696388913353561e-06</v>
+        <v>7.29895994129822e-24</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>3.1099496972908e-08</v>
+        <v>6.455958441798284e-26</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>7.733647558125219e-05</v>
+        <v>7.2549164721097e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>2.057900248370019e-06</v>
+        <v>2.056831409601801e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>2.82157055188426e-06</v>
+        <v>2.932219729438639e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>4.515434056747753e-06</v>
+        <v>6.983305845245535e-24</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>7.311220633608263e-08</v>
+        <v>1.5565126575538e-25</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>7.549029115418041e-05</v>
+        <v>7.083996888762454e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1.899657486189642e-06</v>
+        <v>1.898408815476676e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>2.039462983074753e-06</v>
+        <v>2.117728969277728e-06</v>
       </c>
     </row>
     <row r="91">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>3.976980823075481e-06</v>
+        <v>6.041237466950773e-24</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>3.957885501371849e-09</v>
+        <v>6.012231429080746e-27</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>7.018062813971138e-05</v>
+        <v>6.593303554658005e-05</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>1.828730863672977e-06</v>
+        <v>1.82783886194114e-06</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1.096705219695716e-06</v>
+        <v>1.13908443857079e-06</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>3.919600674367374e-06</v>
+        <v>5.954068405254881e-24</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>4.295154055533219e-09</v>
+        <v>6.524557300826776e-27</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>6.928930984152302e-05</v>
+        <v>6.510707662329199e-05</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1.688741186203209e-06</v>
+        <v>1.687554555315284e-06</v>
       </c>
     </row>
     <row r="102">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>3.514179363526831e-06</v>
+        <v>5.33817556339736e-24</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>4.10480811546934e-09</v>
+        <v>6.23536070954431e-27</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>6.36780332201348e-05</v>
+        <v>5.99296316908011e-05</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>1.636985798597107e-06</v>
+        <v>1.636008072537979e-06</v>
       </c>
     </row>
     <row r="108">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>3.115667600530086e-06</v>
+        <v>4.732819707224486e-24</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>6.972843399132983e-09</v>
+        <v>1.059181423913585e-26</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>6.364898725543212e-05</v>
+        <v>5.989998979790679e-05</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>1.549640135123718e-06</v>
+        <v>1.546380468338252e-06</v>
       </c>
     </row>
     <row r="114">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>3.311907926620894e-06</v>
+        <v>5.03088567114367e-24</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>6.487911947642246e-07</v>
+        <v>9.85490527922687e-25</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>7.307931315247956e-05</v>
+        <v>6.896324323556508e-05</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>2.284865598154709e-05</v>
+        <v>2.227690258528113e-05</v>
       </c>
     </row>
     <row r="120">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>2.392477689738555e-05</v>
+        <v>2.536755847714313e-05</v>
       </c>
     </row>
     <row r="164">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>1.19776933677042e-05</v>
+        <v>1.2699697039284e-05</v>
       </c>
     </row>
     <row r="170">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>9.736903495782187e-09</v>
+        <v>1.012676299219692e-08</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>3.195756731233027e-05</v>
+        <v>4.968360826208356e-23</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>1.413521387804347e-07</v>
+        <v>2.330809683922963e-25</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0005386590669537054</v>
+        <v>0.000505939331038106</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0004658009842667772</v>
+        <v>0.0004666527778777714</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0005068367645867014</v>
+        <v>0.07884566708929407</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0.001039441795651603</v>
+        <v>0.001102195019714658</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>3.195773780916682e-05</v>
+        <v>4.968388892836845e-23</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>1.460529801279255e-07</v>
+        <v>2.408193388137984e-25</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0005397371749401316</v>
+        <v>0.0005070194891681574</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0004955259616067578</v>
+        <v>0.0004964342806062848</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0005288927868683239</v>
+        <v>0.07886860633629152</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.001039452745970248</v>
+        <v>0.001102206408477993</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>2.13121088991119e-10</v>
+        <v>3.508329274136235e-28</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>5.876052882183708e-09</v>
+        <v>9.672964998689903e-27</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>1.347635257896025e-06</v>
+        <v>1.350197937950243e-06</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>3.715622925341897e-05</v>
+        <v>3.722688600348527e-05</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>2.757003347211833e-05</v>
+        <v>2.867406459162079e-05</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>1.368790109255207e-08</v>
+        <v>1.423595706714241e-08</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>5.936127518628995e-14</v>
+        <v>9.226784324698179e-32</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>5.954737670009725e-17</v>
+        <v>9.345676936237892e-35</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>9.775621850835562e-13</v>
+        <v>9.170643990168004e-13</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>3.338154299090988e-14</v>
+        <v>3.33648516069233e-14</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>5.012618616839069e-14</v>
+        <v>3.07320089289049e-14</v>
       </c>
     </row>
     <row r="199">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>1.18722510037021e-13</v>
+        <v>1.845356237986288e-31</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1.19094712938181e-16</v>
+        <v>1.869134752215563e-34</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>1.954641865947592e-12</v>
+        <v>1.833646686132101e-12</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>5.347804689928704e-14</v>
+        <v>5.345434750989629e-14</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>5.490551836417106e-14</v>
+        <v>8.816123607472155e-14</v>
       </c>
     </row>
     <row r="205">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>8.927309283590709e-14</v>
+        <v>1.356104015963794e-31</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>8.695395519170777e-17</v>
+        <v>1.32087513730533e-34</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>1.575502045347176e-12</v>
+        <v>1.480152420715955e-12</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>4.167911110096192e-14</v>
+        <v>4.16607371825072e-14</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>6.586218477094578e-14</v>
+        <v>6.830970260119679e-14</v>
       </c>
     </row>
     <row r="211">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>7.507059956859162e-08</v>
+        <v>1.140353112609523e-25</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>3.72708571385681e-11</v>
+        <v>5.661595643735683e-29</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>6.39827283038211e-12</v>
+        <v>6.011030481335803e-12</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1.672702158196013e-13</v>
+        <v>1.671903377183579e-13</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>9.590182093626089e-14</v>
+        <v>9.95207325445313e-14</v>
       </c>
     </row>
     <row r="217">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>3.784436214217308e-07</v>
+        <v>5.748713067208961e-25</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>1.878879692224833e-10</v>
+        <v>2.854094937020632e-28</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>4.777340554180347e-12</v>
+        <v>4.488717797222806e-12</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>1.161812499924782e-13</v>
+        <v>1.160987179439426e-13</v>
       </c>
     </row>
     <row r="222">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>1.92528310219407e-07</v>
+        <v>2.924559524726829e-25</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>9.5585608666118e-11</v>
+        <v>1.451972449845612e-28</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>3.083689799694254e-06</v>
+        <v>2.907370990202439e-06</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>1.531047269622238e-09</v>
+        <v>1.443509429904737e-09</v>
       </c>
     </row>
     <row r="228">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>2.85241081762212e-06</v>
+        <v>4.332891981482113e-24</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>1.416150964218404e-09</v>
+        <v>2.151173007589158e-27</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>5.242308031978403e-05</v>
+        <v>4.942564041503633e-05</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>2.602675023323604e-08</v>
+        <v>2.453859617467796e-08</v>
       </c>
     </row>
     <row r="234">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>2.194935803115376e-06</v>
+        <v>3.334147992283803e-24</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>2.197144613643668e-09</v>
+        <v>3.337503214611651e-27</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>4.736695965039216e-05</v>
+        <v>4.473336228989242e-05</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>2.351739016069422e-08</v>
+        <v>2.220987236791856e-08</v>
       </c>
     </row>
     <row r="240">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>4.546342988222185e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>2.05891775971419e-05</v>
+        <v>2.177055199998435e-05</v>
       </c>
     </row>
     <row r="272">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>4.572066199872354e-05</v>
+        <v>4.831740913451701e-05</v>
       </c>
     </row>
     <row r="278">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>3.924707515214852e-05</v>
+        <v>4.155878998778356e-05</v>
       </c>
     </row>
     <row r="284">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>1.196238909125093e-05</v>
+        <v>1.268378354916927e-05</v>
       </c>
     </row>
     <row r="290">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>1.162078970557453e-16</v>
+        <v>8.450430259650018e-16</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>2.867647429108453e-05</v>
+        <v>4.457127855833936e-23</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>1.056514149560197e-05</v>
+        <v>2.286519985998239e-23</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>0.0004879264316371645</v>
+        <v>0.0004587905341952607</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0.0004083699196228663</v>
+        <v>0.0004090989706616151</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>0.0003547781827370884</v>
+        <v>0.0003693621608448526</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.0007709762950477742</v>
+        <v>0.0008156606517391976</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>2.867647429108463e-05</v>
+        <v>4.457127855833951e-23</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>1.056514149560201e-05</v>
+        <v>2.286519985998247e-23</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>0.0004888716156286829</v>
+        <v>0.0004597374729047651</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>0.0004344299925318277</v>
+        <v>0.0004352074236521937</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>0.0003696861938786856</v>
+        <v>0.0003848352987469286</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>0.0007709836965030157</v>
+        <v>0.0008156683337657632</v>
       </c>
     </row>
     <row r="308">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>1.184695430705396e-06</v>
+        <v>1.186886485094986e-06</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>3.266374544659164e-05</v>
+        <v>3.272415594619032e-05</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>1.863501772570385e-05</v>
+        <v>1.934142632030204e-05</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>9.25182093421897e-09</v>
+        <v>9.602535160511391e-09</v>
       </c>
     </row>
     <row r="314">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>5.052460017315342e-09</v>
+        <v>5.048777309773904e-09</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>1.393035404774087e-07</v>
+        <v>1.392020029694804e-07</v>
       </c>
     </row>
     <row r="318">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>1.06398065502038e-07</v>
+        <v>1.616219968694739e-25</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>5.282398247544333e-11</v>
+        <v>8.024128530904274e-29</v>
       </c>
     </row>
     <row r="328">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>3.723928008465564e-07</v>
+        <v>5.656763382741146e-25</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>1.84883725968899e-10</v>
+        <v>2.808441754910707e-28</v>
       </c>
     </row>
     <row r="334">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>2.699464708650966e-14</v>
+        <v>4.100597146753977e-32</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>1.340216814939414e-17</v>
+        <v>2.035844080406106e-35</v>
       </c>
     </row>
     <row r="340">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>1.379341237174034e-07</v>
+        <v>2.095245003481413e-25</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>1.380729540759304e-10</v>
+        <v>2.097353861210516e-28</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>2.577904935836588e-06</v>
+        <v>2.434312261986577e-06</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>1.279870554496927e-09</v>
+        <v>1.208580359394985e-09</v>
       </c>
     </row>
     <row r="348">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>2.344898078521735e-06</v>
+        <v>3.561943810772627e-24</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>2.347258222827412e-09</v>
+        <v>3.565528911764808e-27</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>4.382472023196105e-05</v>
+        <v>4.138362604289478e-05</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>2.175796640295823e-08</v>
+        <v>2.054602378545025e-08</v>
       </c>
     </row>
     <row r="354">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>1.884044626133141e-06</v>
+        <v>2.861885511262138e-24</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>2.904201176400677e-08</v>
+        <v>4.411206702083999e-26</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>4.141170198405414e-05</v>
+        <v>3.916681710731388e-05</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>2.055987587332645e-08</v>
+        <v>1.944534659284772e-08</v>
       </c>
     </row>
     <row r="360">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>1.651961138051523e-05</v>
+        <v>1.742420629801654e-05</v>
       </c>
     </row>
     <row r="380">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>3.385234995757582e-05</v>
+        <v>3.56870193108818e-05</v>
       </c>
     </row>
     <row r="386">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>2.694665306994895e-05</v>
+        <v>2.847235754684507e-05</v>
       </c>
     </row>
     <row r="392">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>5.882630707882732e-06</v>
+        <v>6.220164962222708e-06</v>
       </c>
     </row>
     <row r="398">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>1.826623700775641e-12</v>
+        <v>9.306186880879684e-16</v>
       </c>
     </row>
     <row r="404">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>2.425316887616074e-05</v>
+        <v>3.68417356891796e-23</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>1.12134176929735e-07</v>
+        <v>1.703381667920843e-25</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>0.0004424699524108035</v>
+        <v>0.0004166431213561808</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>0.0003605643549857659</v>
+        <v>0.0003611826536914114</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>0.0002397827036778875</v>
+        <v>0.0002491446871548314</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>0.0005458751764189342</v>
+        <v>0.000576070790569281</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>2.425316887616083e-05</v>
+        <v>3.684173568917973e-23</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>1.121341769297353e-07</v>
+        <v>1.703381667920849e-25</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>0.0004433082805974234</v>
+        <v>0.000417482935339589</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>0.0003836782607025274</v>
+        <v>0.0003843375249481989</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>0.0002397827036778884</v>
+        <v>0.0002491446871548322</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0.0005458751764189359</v>
+        <v>0.000576070790569283</v>
       </c>
     </row>
     <row r="428">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>1.050860992181357e-06</v>
+        <v>1.052711800784014e-06</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>2.897373878442885e-05</v>
+        <v>2.902476822161639e-05</v>
       </c>
     </row>
     <row r="432">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>4.636573140604215e-09</v>
+        <v>4.626456653849768e-09</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>1.278369451623734e-07</v>
+        <v>1.275580191704293e-07</v>
       </c>
     </row>
     <row r="438">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>1.079237306762276e-17</v>
+        <v>1.639291710509221e-35</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>1.475839449940524e-16</v>
+        <v>2.241704730897424e-34</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>2.827652870966864e-18</v>
+        <v>2.664607225451485e-18</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>3.866769274525925e-17</v>
+        <v>3.643807008224636e-17</v>
       </c>
     </row>
     <row r="444">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>7.05748417027722e-08</v>
+        <v>1.072045946206142e-25</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>8.623272662954915e-10</v>
+        <v>1.309860032116486e-27</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>7.351904842580744e-18</v>
+        <v>6.927985738813118e-18</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>1.005361020315379e-16</v>
+        <v>9.473907729005069e-17</v>
       </c>
     </row>
     <row r="450">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>2.470575142628085e-07</v>
+        <v>3.752852983724477e-25</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>3.645215710206084e-09</v>
+        <v>5.537015556062447e-27</v>
       </c>
     </row>
     <row r="454">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>3.049261968728373e-08</v>
+        <v>4.631867368595873e-26</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>3.165665908439712e-09</v>
+        <v>4.808575359817421e-27</v>
       </c>
     </row>
     <row r="460">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>3.604239220379829e-07</v>
+        <v>5.474883932975421e-25</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>4.338934895953393e-09</v>
+        <v>6.590266351918586e-27</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>2.260816843409872e-06</v>
+        <v>2.138402127131405e-06</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>2.802432024257341e-08</v>
+        <v>2.786690766439279e-08</v>
       </c>
     </row>
     <row r="468">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>2.011412163946264e-06</v>
+        <v>3.055357837186204e-24</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>6.964249780984833e-08</v>
+        <v>1.057771132217144e-25</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>3.843418129225521e-05</v>
+        <v>3.63531151448576e-05</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>4.764171002772441e-07</v>
+        <v>4.737410659115633e-07</v>
       </c>
     </row>
     <row r="474">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>1.568359844486361e-06</v>
+        <v>2.382355174897766e-24</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>3.048881187928999e-07</v>
+        <v>4.63066971570926e-25</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>3.624274670477035e-05</v>
+        <v>3.433347503900553e-05</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>7.065472107235422e-07</v>
+        <v>7.015015778136214e-07</v>
       </c>
     </row>
     <row r="480">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>1.646257626372987e-05</v>
+        <v>1.732436169079161e-05</v>
       </c>
     </row>
     <row r="488">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>2.99150152155821e-05</v>
+        <v>3.148295931886586e-05</v>
       </c>
     </row>
     <row r="494">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>3.975373172691896e-05</v>
+        <v>4.179514398434527e-05</v>
       </c>
     </row>
     <row r="500">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>6.204333094562953e-06</v>
+        <v>6.509899373284299e-06</v>
       </c>
     </row>
     <row r="506">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>2.723339738755745e-06</v>
+        <v>2.834796939106497e-06</v>
       </c>
     </row>
     <row r="512">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>1.424438355728812e-05</v>
+        <v>1.470920740963881e-05</v>
       </c>
     </row>
     <row r="518">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>2.152344546823407e-05</v>
+        <v>3.269490019410977e-23</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>9.239495668502333e-07</v>
+        <v>1.40346656817647e-24</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>0.0004013454558828914</v>
+        <v>0.0003785643391159649</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>0.0003322875946425458</v>
+        <v>0.0003323282406400455</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>0.0001723916795644679</v>
+        <v>0.0001787617490690985</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0.0003720748388909902</v>
+        <v>0.0003919638128561838</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>2.152531034057072e-05</v>
+        <v>3.269773289883394e-23</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>9.494513925024534e-07</v>
+        <v>1.442203344190236e-24</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>0.0004022181578492174</v>
+        <v>0.000379435671469012</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>0.0003556674018449953</v>
+        <v>0.000355671511018242</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>0.0001777205837254874</v>
+        <v>0.0001842690287614097</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0.0003756879478609632</v>
+        <v>0.0003957603394664049</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>3.930699794653745e-09</v>
+        <v>5.970656488907244e-27</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>5.375167988054842e-08</v>
+        <v>8.164775562483077e-26</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>1.666547796738493e-06</v>
+        <v>1.663658398541325e-06</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>4.50968124571368e-05</v>
+        <v>4.50186793344868e-05</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>4.662173594178631e-06</v>
+        <v>4.824568042644597e-06</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>7.713445195298231e-06</v>
+        <v>8.104942300727763e-06</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>4.085789658694631e-09</v>
+        <v>6.206219631693815e-27</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>5.58725085268831e-08</v>
+        <v>8.486904325914501e-26</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>1.609626001289318e-06</v>
+        <v>1.60621550653676e-06</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>4.098997236304812e-05</v>
+        <v>4.090457775045073e-05</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>6.083326830318512e-06</v>
+        <v>6.285130005716545e-06</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>6.88783264683808e-06</v>
+        <v>7.233149498501945e-06</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>4.473025066002001e-09</v>
+        <v>6.794389883755286e-27</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>6.116788969038738e-08</v>
+        <v>9.291217571791745e-26</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>1.597686110351552e-06</v>
+        <v>1.594075613387223e-06</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>3.466288696945468e-05</v>
+        <v>3.458742286550508e-05</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>3.40525503635161e-06</v>
+        <v>3.522965813748557e-06</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>5.2691974891437e-06</v>
+        <v>5.524665993255751e-06</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>5.478882982364871e-09</v>
+        <v>8.322050888474583e-27</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>7.492274101344062e-08</v>
+        <v>1.138025516114238e-25</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>6.243934004363956e-07</v>
+        <v>6.226687459627418e-07</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>8.538478116653199e-06</v>
+        <v>8.514893747452965e-06</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>1.344950023283548e-06</v>
+        <v>1.390005025807931e-06</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>4.849570304467317e-06</v>
+        <v>5.08243855769256e-06</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>8.573903380778149e-09</v>
+        <v>1.302265552895043e-26</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>1.379500150118529e-07</v>
+        <v>2.095283059203356e-25</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>5.762570546462291e-07</v>
+        <v>5.743512293145501e-07</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>7.880221423264502e-06</v>
+        <v>7.854159572070475e-06</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>1.195715164819876e-06</v>
+        <v>1.234423225843778e-06</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>3.574995345833779e-06</v>
+        <v>3.739258628051432e-06</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>4.48791703498099e-08</v>
+        <v>6.816846545178059e-26</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>3.72755023918153e-07</v>
+        <v>5.661564731168031e-25</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>4.940468025820171e-07</v>
+        <v>4.924108717904419e-07</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>6.756009607886219e-06</v>
+        <v>6.733638520596604e-06</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>9.77277342452202e-07</v>
+        <v>1.006953793007099e-06</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>3.499984083465082e-06</v>
+        <v>3.659085389960084e-06</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>4.123749695054551e-07</v>
+        <v>6.26379534310188e-25</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>1.731075185739724e-06</v>
+        <v>2.629173267236368e-24</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>2.115354738027183e-06</v>
+        <v>2.008929900085774e-06</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>1.696472272690455e-06</v>
+        <v>1.668572967827954e-06</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>9.390314554337401e-07</v>
+        <v>9.667031747076089e-07</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>3.035914085903063e-06</v>
+        <v>3.161470763684547e-06</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>1.919912741342208e-06</v>
+        <v>2.916317085441108e-24</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>6.665883867190283e-06</v>
+        <v>1.012420467380264e-23</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>3.596130652324065e-05</v>
+        <v>3.415207039367001e-05</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>2.884024996360501e-05</v>
+        <v>2.836595814109895e-05</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>7.739539013909051e-07</v>
+        <v>7.956165380823215e-07</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>3.040321515295719e-06</v>
+        <v>3.161576013246224e-06</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>5.740663233130891e-07</v>
+        <v>8.722899784923974e-25</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>1.359556684664964e-06</v>
+        <v>2.065694251643866e-24</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>3.927023128245262e-05</v>
+        <v>3.726414057537984e-05</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>9.455251655612406e-05</v>
+        <v>9.021603106042247e-05</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>1.06925040144739e-06</v>
+        <v>1.098408589988747e-06</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>1.026359315463428e-05</v>
+        <v>1.056906397166827e-05</v>
       </c>
     </row>
     <row r="602">
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>1.646258105820501e-05</v>
+        <v>1.732436463428437e-05</v>
       </c>
     </row>
     <row r="608">
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>5.982016096737063e-06</v>
+        <v>6.285651352186736e-06</v>
       </c>
     </row>
     <row r="614">
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>2.18263036750916e-05</v>
+        <v>2.288875089291851e-05</v>
       </c>
     </row>
     <row r="620">
@@ -11065,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>4.139380444914448e-06</v>
+        <v>4.331872075640043e-06</v>
       </c>
     </row>
     <row r="626">
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>2.723341925389701e-06</v>
+        <v>2.834798200689466e-06</v>
       </c>
     </row>
     <row r="632">
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>1.424438253180255e-05</v>
+        <v>1.470920712120717e-05</v>
       </c>
     </row>
     <row r="638">
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>1.796247693748455e-05</v>
+        <v>2.728546920141877e-23</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>1.59872886262595e-06</v>
+        <v>2.428437503589657e-24</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>0.0003423291145744639</v>
+        <v>0.000323434954720755</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>0.0002818277163900293</v>
+        <v>0.0002812757520077194</v>
       </c>
     </row>
     <row r="660">
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>0.0001014065681994768</v>
+        <v>0.0001050124102444018</v>
       </c>
     </row>
     <row r="661">
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>0.0002348717700774587</v>
+        <v>0.0002469648010957772</v>
       </c>
     </row>
     <row r="662">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>1.796434180964335e-05</v>
+        <v>2.728830190587276e-23</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>1.624230685846128e-06</v>
+        <v>2.467174275909201e-24</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>0.0003423781793159041</v>
+        <v>0.0003234839312844335</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>0.0002824986687428004</v>
+        <v>0.0002819454985439527</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="E666" t="n">
-        <v>0.000106735471673263</v>
+        <v>0.0001105196890959978</v>
       </c>
     </row>
     <row r="667">
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>0.0002384848787028584</v>
+        <v>0.0002507613273439328</v>
       </c>
     </row>
     <row r="668">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>3.930699267242444e-09</v>
+        <v>5.970655687779737e-27</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>5.375167266828474e-08</v>
+        <v>8.164774466954251e-26</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>1.00353427084616e-07</v>
+        <v>1.001588786768006e-07</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>1.914596346532153e-06</v>
+        <v>1.910764082213956e-06</v>
       </c>
     </row>
     <row r="672">
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>4.662173087302735e-06</v>
+        <v>4.824567515313946e-06</v>
       </c>
     </row>
     <row r="673">
@@ -11881,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>7.713444154791629e-06</v>
+        <v>8.104941207414108e-06</v>
       </c>
     </row>
     <row r="674">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>3.972422901347629e-09</v>
+        <v>6.034018675481727e-27</v>
       </c>
     </row>
     <row r="675">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>5.432223657319688e-08</v>
+        <v>8.251422321259099e-26</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E676" t="n">
-        <v>3.052454038390616e-07</v>
+        <v>3.044913286005104e-07</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>5.026335405588255e-06</v>
+        <v>5.014182075112682e-06</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="E678" t="n">
-        <v>6.083326703396255e-06</v>
+        <v>6.285129980154597e-06</v>
       </c>
     </row>
     <row r="679">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>6.88783195522615e-06</v>
+        <v>7.233148771197553e-06</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>4.13312590037471e-09</v>
+        <v>6.278096662260621e-27</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>5.65198239268016e-08</v>
+        <v>8.585194995251453e-26</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>6.75503054473056e-07</v>
+        <v>6.737717883646413e-07</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>9.23739477463135e-06</v>
+        <v>9.213719991468865e-06</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>3.405255311091144e-06</v>
+        <v>3.522966098164473e-06</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>5.269197434394039e-06</v>
+        <v>5.524665935877265e-06</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>5.147071893234238e-09</v>
+        <v>7.818052683188712e-27</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>7.038537033624222e-08</v>
+        <v>1.069105978756235e-25</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="E688" t="n">
-        <v>6.243161760516629e-07</v>
+        <v>6.22595967003662e-07</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>8.537422085762014e-06</v>
+        <v>8.513898507033989e-06</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>1.344949733134679e-06</v>
+        <v>1.390004725759705e-06</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>4.849569096773786e-06</v>
+        <v>5.082437290682533e-06</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="E692" t="n">
-        <v>8.442383028846713e-09</v>
+        <v>1.282288948715857e-26</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>1.36151823378965e-07</v>
+        <v>2.067970357064089e-25</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>5.762572650476839e-07</v>
+        <v>5.743514390201929e-07</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>7.880224300470146e-06</v>
+        <v>7.854162439761007e-06</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>1.195715604439274e-06</v>
+        <v>1.234423679726035e-06</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>3.574996649641352e-06</v>
+        <v>3.739259991768212e-06</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="E698" t="n">
-        <v>1.968666777486731e-08</v>
+        <v>2.990075476874753e-26</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>3.727298966486637e-07</v>
+        <v>5.661183044812133e-25</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E700" t="n">
-        <v>4.940469439299623e-07</v>
+        <v>4.924110126703436e-07</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>6.756011540796364e-06</v>
+        <v>6.733640447106326e-06</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>9.772776114021102e-07</v>
+        <v>1.006954070132827e-06</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>3.499985050759704e-06</v>
+        <v>3.659086401362234e-06</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="E704" t="n">
-        <v>9.789996049803884e-08</v>
+        <v>1.486913878369204e-25</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>1.338765892943889e-06</v>
+        <v>2.033330326133733e-24</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>3.809973129088547e-08</v>
+        <v>3.746763916243122e-08</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>5.210076237997187e-07</v>
+        <v>5.123638668305655e-07</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>9.390315911224959e-07</v>
+        <v>9.667033144590952e-07</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>3.035914494401694e-06</v>
+        <v>3.161471189329077e-06</v>
       </c>
     </row>
     <row r="710">
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="E712" t="n">
-        <v>6.477004025728707e-07</v>
+        <v>6.369547539241382e-07</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>8.85719757712154e-06</v>
+        <v>8.710252580950348e-06</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="E714" t="n">
-        <v>7.739533109111646e-07</v>
+        <v>7.956159310753071e-07</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>3.040319195715372e-06</v>
+        <v>3.161573601156072e-06</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E716" t="n">
-        <v>1.241666958740215e-07</v>
+        <v>1.886734329060514e-25</v>
       </c>
     </row>
     <row r="717">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>9.823097749355877e-07</v>
+        <v>1.492616360493971e-24</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>9.26627595750195e-06</v>
+        <v>8.808028063153109e-06</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>8.166808257040085e-05</v>
+        <v>7.794152903809457e-05</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>1.06925040144739e-06</v>
+        <v>1.098408589988747e-06</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>1.026359315463428e-05</v>
+        <v>1.056906397166827e-05</v>
       </c>
     </row>
     <row r="722">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>1.478948123421631e-05</v>
+        <v>2.246547195538947e-23</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>1.728071169597238e-06</v>
+        <v>2.624889153098911e-24</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>0.000286655400998448</v>
+        <v>0.000271267774182363</v>
       </c>
     </row>
     <row r="779">
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>0.0002623447410348676</v>
+        <v>0.0002616896939364968</v>
       </c>
     </row>
     <row r="780">
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="E780" t="n">
-        <v>5.106253196712829e-05</v>
+        <v>5.283908886708357e-05</v>
       </c>
     </row>
     <row r="781">
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>0.0001538797068640719</v>
+        <v>0.0001614546361337845</v>
       </c>
     </row>
     <row r="782">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>1.478948123421636e-05</v>
+        <v>2.246547195538954e-23</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>1.728071169597244e-06</v>
+        <v>2.624889153098921e-24</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="E784" t="n">
-        <v>0.000286655400998449</v>
+        <v>0.0002712677741823638</v>
       </c>
     </row>
     <row r="785">
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>0.0002623447410348685</v>
+        <v>0.0002616896939364977</v>
       </c>
     </row>
     <row r="786">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E786" t="n">
-        <v>5.106253196712848e-05</v>
+        <v>5.283908886708374e-05</v>
       </c>
     </row>
     <row r="787">
@@ -13819,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>0.0001538797068640725</v>
+        <v>0.0001614546361337851</v>
       </c>
     </row>
     <row r="788">
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="E896" t="n">
-        <v>1.265242502459989e-05</v>
+        <v>1.921916435205624e-23</v>
       </c>
     </row>
     <row r="897">
@@ -15689,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>3.52977480316834e-06</v>
+        <v>5.361282400615377e-24</v>
       </c>
     </row>
     <row r="898">
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="E898" t="n">
-        <v>0.0002508559742788578</v>
+        <v>0.000237739941969104</v>
       </c>
     </row>
     <row r="899">
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>0.0002336321298086355</v>
+        <v>0.0002328825473993468</v>
       </c>
     </row>
     <row r="900">
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="E900" t="n">
-        <v>3.160994720995151e-05</v>
+        <v>3.263842178055256e-05</v>
       </c>
     </row>
     <row r="901">
@@ -15757,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>0.0001041988574537713</v>
+        <v>0.0001090717903772366</v>
       </c>
     </row>
     <row r="902">
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="E902" t="n">
-        <v>1.265242502459993e-05</v>
+        <v>1.92191643520563e-23</v>
       </c>
     </row>
     <row r="903">
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="E903" t="n">
-        <v>3.529774803168351e-06</v>
+        <v>5.361282400615397e-24</v>
       </c>
     </row>
     <row r="904">
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="E904" t="n">
-        <v>0.0002508559742788586</v>
+        <v>0.0002377399419691048</v>
       </c>
     </row>
     <row r="905">
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="E905" t="n">
-        <v>0.0002336321298086363</v>
+        <v>0.0002328825473993476</v>
       </c>
     </row>
     <row r="906">
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="E906" t="n">
-        <v>3.160994720995162e-05</v>
+        <v>3.263842178055267e-05</v>
       </c>
     </row>
     <row r="907">
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="E907" t="n">
-        <v>0.0001041988574537716</v>
+        <v>0.000109071790377237</v>
       </c>
     </row>
     <row r="908">
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="E1016" t="n">
-        <v>1.035178743134804e-05</v>
+        <v>1.572449925908539e-23</v>
       </c>
     </row>
     <row r="1017">
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="E1017" t="n">
-        <v>4.349034930725182e-05</v>
+        <v>6.60537624270354e-23</v>
       </c>
     </row>
     <row r="1018">
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="E1018" t="n">
-        <v>0.0002195809798071414</v>
+        <v>0.0002084290076795218</v>
       </c>
     </row>
     <row r="1019">
@@ -17763,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="E1019" t="n">
-        <v>0.0002800013389737004</v>
+        <v>0.0002755205516592432</v>
       </c>
     </row>
     <row r="1020">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="E1020" t="n">
-        <v>2.385620688811914e-05</v>
+        <v>2.455910395681087e-05</v>
       </c>
     </row>
     <row r="1021">
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="E1021" t="n">
-        <v>8.275048593033989e-05</v>
+        <v>8.625314837080349e-05</v>
       </c>
     </row>
     <row r="1022">
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="E1022" t="n">
-        <v>1.035178743134808e-05</v>
+        <v>1.572449925908544e-23</v>
       </c>
     </row>
     <row r="1023">
@@ -17831,7 +17831,7 @@
         <v>1</v>
       </c>
       <c r="E1023" t="n">
-        <v>4.349034930725197e-05</v>
+        <v>6.605376242703563e-23</v>
       </c>
     </row>
     <row r="1024">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="E1024" t="n">
-        <v>0.0002195809798071421</v>
+        <v>0.0002084290076795225</v>
       </c>
     </row>
     <row r="1025">
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="E1025" t="n">
-        <v>0.0002800013389737014</v>
+        <v>0.0002755205516592441</v>
       </c>
     </row>
     <row r="1026">
@@ -17882,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="E1026" t="n">
-        <v>2.385620688811922e-05</v>
+        <v>2.455910395681095e-05</v>
       </c>
     </row>
     <row r="1027">
@@ -17899,7 +17899,7 @@
         <v>1</v>
       </c>
       <c r="E1027" t="n">
-        <v>8.275048593034016e-05</v>
+        <v>8.62531483708038e-05</v>
       </c>
     </row>
     <row r="1028">
@@ -19752,7 +19752,7 @@
         <v>0</v>
       </c>
       <c r="E1136" t="n">
-        <v>2.345586203795457e-06</v>
+        <v>3.564137703760376e-24</v>
       </c>
     </row>
     <row r="1137">
@@ -19769,7 +19769,7 @@
         <v>1</v>
       </c>
       <c r="E1137" t="n">
-        <v>1.369030433993877e-05</v>
+        <v>2.080214528650208e-23</v>
       </c>
     </row>
     <row r="1138">
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="E1138" t="n">
-        <v>0.0001716822189740051</v>
+        <v>0.0001631629515288365</v>
       </c>
     </row>
     <row r="1139">
@@ -19803,7 +19803,7 @@
         <v>1</v>
       </c>
       <c r="E1139" t="n">
-        <v>0.001172533288598841</v>
+        <v>0.00112081420834181</v>
       </c>
     </row>
     <row r="1140">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="E1140" t="n">
-        <v>1.824088124465519e-05</v>
+        <v>1.874194306393822e-05</v>
       </c>
     </row>
     <row r="1141">
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="E1141" t="n">
-        <v>0.0001464358106078797</v>
+        <v>0.0001509950039238412</v>
       </c>
     </row>
     <row r="1142">
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="E1142" t="n">
-        <v>2.345586203795465e-06</v>
+        <v>3.56413770376039e-24</v>
       </c>
     </row>
     <row r="1143">
@@ -19871,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="E1143" t="n">
-        <v>1.369030433993882e-05</v>
+        <v>2.080214528650215e-23</v>
       </c>
     </row>
     <row r="1144">
@@ -19888,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="E1144" t="n">
-        <v>0.0001716822189740057</v>
+        <v>0.000163162951528837</v>
       </c>
     </row>
     <row r="1145">
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
       <c r="E1145" t="n">
-        <v>0.001172533288598845</v>
+        <v>0.001120814208341814</v>
       </c>
     </row>
     <row r="1146">
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="E1146" t="n">
-        <v>1.824088124465525e-05</v>
+        <v>1.874194306393828e-05</v>
       </c>
     </row>
     <row r="1147">
@@ -19939,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="E1147" t="n">
-        <v>0.0001464358106078802</v>
+        <v>0.0001509950039238417</v>
       </c>
     </row>
     <row r="1148">
